--- a/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
+++ b/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HKMC\Signal_Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\HkmcVehicleInpAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4B9D1969-01CD-4F28-8008-A9E553BC7082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6274B7C4-B8B4-429D-B023-8049C963068C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71FE0B-9B22-4924-A795-CCDF1F67AE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="22" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="TemplateRef" localSheetId="1">#REF!</definedName>
     <definedName name="TemplateRef">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="291">
   <si>
     <t>Change Log</t>
   </si>
@@ -135,22 +135,331 @@
     <t>HVIA_CLU</t>
   </si>
   <si>
-    <t>HkmcVehicleInput_SpdUnitTyp</t>
-  </si>
-  <si>
     <t>enum</t>
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Cx0_AdasFCASR_Default
+Cx1_AdasFCASR_Off
+Cx2_AdasFCASR_Warning
+Cx3_AdasFCASR_Assist
+Cx4_AdasFCASR_Reserved
+Cx5_AdasFCASR_Reserved
+Cx6_AdasFCASR_Reserved
+Cx7_AdasFCASR_Invalid</t>
+  </si>
+  <si>
+    <t>HVIA_MDPS</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>HSYS_CLU11</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>HSYS_CLU19</t>
+  </si>
+  <si>
+    <t>HSYS_MDPS12</t>
+  </si>
+  <si>
+    <t>Int8</t>
+  </si>
+  <si>
+    <t>Int16</t>
+  </si>
+  <si>
+    <t>HSYS_CGW1</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>HSYS_CLU_01_20ms</t>
+  </si>
+  <si>
+    <t>HSYS_CLU_05_00ms</t>
+  </si>
+  <si>
+    <t>Cx0_AAsstSR_Default
+Cx1_AAsstSR_OFF
+Cx2_AAsstSR_Late
+Cx3_AAsstSR_Normal
+Cx4_AAsstSR_Early
+Cx5_AAsstSR_Reserved
+Cx6_AAsstSR_Reserved
+Cx7_AAsstSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_Fca1stWSR_Default
+Cx1_Fca1stWSR_On_Late
+Cx2_Fca1stWSR_ON_Normal
+Cx3_Fca1stWSR_ON_Early
+Cx4_Fca1stWSR_Reserved
+Cx5_Fca1stWSR_Reserved
+Cx6_Fca1stWSR_Reserved
+Cx7_Fca1stWSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_HADSR_Default
+Cx1_HADSR_Function_On
+Cx2_HADSR_Function_Off
+Cx3_HADSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_IslwSR_Default
+Cx1_IslwSR_Disable
+Cx2_IslwSR_Enable
+Cx3_IslwSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_StaR1R_Default
+Cx1_StaR1R_Reset
+Cx2_StaR1R_Not_Used
+Cx3_StaR1R_Error_Indicator</t>
+  </si>
+  <si>
+    <t>HSYS_CLU_12_00ms</t>
+  </si>
+  <si>
+    <t>Cx0_AdasUSMRR_Default
+Cx1_AdasUSMRR_Reset
+Cx2_AdasUSMRR_Reserved
+Cx3_AdasUSMRR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCDMSR_Default
+Cx1_AdasSCCDMSR_Comfort
+Cx2_AdasSCCDMSR_Normal
+Cx3_AdasSCCDMSR_Dynamic
+Cx4_AdasSCCDMSR_Reserved
+Cx5_AdasSCCDMSR_Reserved
+Cx6_AdasSCCDMSR_Reserved
+Cx7_AdasSCCDMSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasDAWMSR_Default
+Cx1_AdasDAWMSR_Off
+Cx2_AdasDAWMSR_Reserved
+Cx3_AdasDAWMSR_Normal
+Cx4_AdasDAWMSR_Early
+Cx5_AdasDAWMSR_Reserved
+Cx6_AdasDAWMSR_Reserved
+Cx7_AdasDAWMSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasHDASR_Default
+Cx1_AdasHDASR_Function_Off
+Cx2_AdasHDASR_Function_On
+Cx3_AdasHDASR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasNSCCCSR_Default
+Cx1_AdasNSCCCSR_Disable
+Cx2_AdasNSCCCSR_Enable
+Cx3_AdasNSCCCSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasLFASR_Default
+Cx1_AdasLFASR_Function_Off
+Cx2_AdasLFASR_Function_On
+Cx3_AdasLFASR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasBCASR_Default
+Cx1_AdasBCASR_Off
+Cx2_AdasBCASR_Warning
+Cx3_AdasBCASR_Assist
+Cx4_AdasBCASR_Reserved
+Cx5_AdasBCASR_Reserved
+Cx6_AdasBCASR_Reserved
+Cx7_AdasBCASR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasISLWSR_Default_x000D_
+Cx1_AdasISLWSR_Disable_x000D_
+Cx2_AdasISLWSR_Enable_x000D_
+Cx3_AdasISLWSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasWrngTSR_Default
+Cx1_AdasWrngTSR_Late
+Cx2_AdasWrngTSR_Normal
+Cx3_AdasWrngTSR_Reserved
+Cx4_AdasWrngTSR_Reserved
+Cx5_AdasWrngTSR_Reserved
+Cx6_AdasWrngTSR_Reserved
+Cx7_AdasWrngTSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasLVDASR_Default
+Cx1_AdasLVDASR_Off
+Cx2_AdasLVDASR_On
+Cx3_AdasLVDASR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasNSCCCSR_Default_x000D_
+Cx1_AdasNSCCCSR_Disable_x000D_
+Cx2_AdasNSCCCSR_Enable_x000D_
+Cx3_AdasNSCCCSR_Invalid</t>
+  </si>
+  <si>
+    <t>HSYS_CLU_13_00ms</t>
+  </si>
+  <si>
+    <t>Cx0_AdasLkaMSR_Default
+Cx1_AdasLkaMSR_LDW_mode
+Cx2_AdasLkaMSR_LKA_mode
+Cx3_AdasLkaMSR_ACTIVE_LKA
+Cx4_AdasLkaMSR_LDW_ON
+Cx5_AdasLkaMSR_LDW_OFF
+Cx6_AdasLkaMSR_LDW/LKA_OFF
+Cx7_AdasLkaMSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasFCAJSR_Default
+Cx1_AdasFCAJSR_Off
+Cx2_AdasFCAJSR_On
+Cx3_AdasFCAJSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasHbaSR_Default
+Cx1_AdasHbaSR_Off
+Cx2_AdasHbaSR_On
+Cx3_AdasHbaSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCMLSR_Default
+Cx1_AdasSCCMLSR_Off
+Cx2_AdasSCCMLSR_On
+Cx3_AdasSCCMLSR_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCMLRR_Default_x000D_
+Cx1_AdasSCCMLRR_Reset_x000D_
+Cx2_AdasSCCMLRR_Reserved_x000D_
+Cx3_AdasSCCMLRR_Invalid</t>
+  </si>
+  <si>
+    <t>HSYS_MDPS_01_10ms</t>
+  </si>
+  <si>
+    <t>Cx0_LkaTAS_Deactivated
+Cx1_LkaTAS_Activated
+Cx2_LkaTAS_Not_Used
+Cx3_LkaTAS_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_LkaTUS_Available
+Cx1_LkaTUS_Unavailable
+Cx2_LkaTUS_Not_used
+Cx3_LkaTUS_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_LkaTFS_No_Fault
+Cx1_LkaTFS_Faulty
+Cx2_LkaTFS_Not_used
+Cx3_LkaTFS_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_LkaFS_Not_Fail_State
+Cx1_LkaFS_Fail_State
+Cx2_LkaFS_Not_used
+Cx3_LkaFS_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_FlxSS_Standard_Mode
+Cx1_FlxSS_Sport_Mode
+Cx2_FlxSS_Comfort_Mode
+Cx3_FlxSS_Reserved
+Cx4_FlxSS_Reserved
+Cx5_FlxSS_Reserved
+Cx6_FlxSS_Not_Used
+Cx7_FlxSS_Invalid</t>
+  </si>
+  <si>
+    <t>Cx0_CurrMV_Standard_Mode
+Cx1_CurrMV_Sport_Mode
+Cx2_CurrMV_Comfort_Mode
+Cx3_CurrMV_Reserved
+Cx4_CurrMV_Reserved
+Cx5_CurrMV_Reserved
+Cx6_CurrMV_Not_Used
+Cx7_CurrMV_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_OutTV_Not_Used ; Cx1_OutTV_Error_Indicator</t>
+  </si>
+  <si>
+    <t>Cx0_StrTSV_Not_Used ; Cx1_StrTSV_Error_Indicator</t>
+  </si>
+  <si>
+    <t>HSYS_BCM_08_200ms</t>
+  </si>
+  <si>
+    <t>Cx0_HbaCMT_HighControlMode_BCM
+Cx1_HbaCMT_HighControlMode_HBA
+Cx2_HbaCMT_Not_Used
+Cx3_HbaCMT_Error_Indicator</t>
+  </si>
+  <si>
+    <t>HkmcVehicleInput SWC/VIPCDD SWC</t>
+  </si>
+  <si>
+    <t>VIPCDD SWC</t>
+  </si>
+  <si>
+    <t>Port Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HVIA_CGW</t>
+  </si>
+  <si>
+    <t>HkmcVehicleInputAdap</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopLevelCompostion/HkmcVehicleInput SWC</t>
+  </si>
+  <si>
+    <t>HkmcVehicleInput SWC</t>
+  </si>
+  <si>
+    <t>TopLevelCompostion</t>
+  </si>
+  <si>
+    <t>Cx0_Typ_C-MDPS
+Cx1_Typ_R-MDPS_Pinion
+Cx2_Typ_R-MDPS_Belt
+Cx6_Typ_Not_Used
+Cx7_Typ_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_SpdUT_kmperh
 Cx1_SpdUT_MPH
 Cx2_SpdUT_Not_used
 Cx3_SpdUT_Error_Indicator</t>
-  </si>
-  <si>
-    <t>HkmcVehicleInput_Fca1stWrngSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_Fca1stWSR_Default
@@ -161,613 +470,579 @@
 Cx5_Fca1stWSR_Reserved
 Cx6_Fca1stWSR_Reserved
 Cx7_Fca1stWSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_CruiseSS_IdlePosition
+Cx1_CruiseSS_Resume_Plus
+Cx2_CruiseSS_Set_Minus
+Cx3_CruiseSS_Time_Gap
+Cx4_CruiseSS_ACC_SCC_Cancel
+Cx5_CruiseSS_Reserved
+Cx6_CruiseSS_Reserved
+Cx7_CruiseSS_Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_CruiseSwState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_CruiseSwMain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_SldMainSW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_ParityBit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_VanzDecimal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_Vanz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_SPEED_UNIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_DetentOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_RheostatLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_AliveCnt1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_FCANValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_CluUSMReset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_SCCDrvModeNValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_NSCCCamNValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_WarningTimingNValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_LVDANValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_LkaModeNValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_HBANValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_AVN_DAWModeNValueSet_New</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcVehInput_HBA_NValueSet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Clu_DawResetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_MDPS12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Mdps_StrColTq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_Def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_ToiUnavail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_ToiActive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_ToiFlt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_FailStat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_MsgCount2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_Chksum2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Mdps_SErr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Mdps_StrTq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Mdps_OutTq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CGW1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_IGNSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_RKECmd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_DrvDrSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_DrvSeatBeltSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_TrunkTgSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_SMKOption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_HoodSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_TurnSigLh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_WiperIntT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_WiperIntSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_WiperLowSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_WiperHighSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_WiperAutoSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_HeadLampLow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_HeadLampHigh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_HazardSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_AstDrSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_LightSwState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_TSigRHSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_TSigLHSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_DriveTypeOption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_PassiveAccessLock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_PassiveAccessUnlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_PassingSW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_HBAControlMode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_InhibitRMT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_RainSnsOption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_SunRoofOpenState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_ParkBrakeSw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF_Gway_TurnSigRh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HVIA_CLU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcVehicleInput_SpdUnitTyp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcVehicleInput_Fca1stWrngSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcVehInput_HBA_ControlMode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HkmcVehicleInput_LkaToiUnblSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HkmcVehicleInput_AdasFCASetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasFCASR_Default
-Cx1_AdasFCASR_Off
-Cx2_AdasFCASR_Warning
-Cx3_AdasFCASR_Assist
-Cx4_AdasFCASR_Reserved
-Cx5_AdasFCASR_Reserved
-Cx6_AdasFCASR_Reserved
-Cx7_AdasFCASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HkmcVehicleInput_LkaModSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_LkaModSR_Default_x000D_
-Cx1_LkaModSR_LDW_mode_x000D_
-Cx2_LkaModSR_LKA_mode_x000D_
-Cx3_LkaModSR_ACTIVE_LKA_x000D_
-Cx4_LkaModSR_LDW_ON_x000D_
-Cx5_LkaModSR_LDW_OFF_x000D_
-Cx6_LkaModSR_LDW/LKA_OFF_x000D_
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaModSR_Default
+Cx1_LkaModSR_LDW_mode
+Cx2_LkaModSR_LKA_mode
+Cx3_LkaModSR_ACTIVE_LKA
+Cx4_LkaModSR_LDW_ON
+Cx5_LkaModSR_LDW_OFF
+Cx6_LkaModSR_LDW_LKA_OFF
 Cx7_LkaModSR_Invalid</t>
-  </si>
-  <si>
-    <t>HkmcVehInput_HBA_NValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_NVS_Default_x000D_
-Cx1_NVS_HBA_Off_x000D_
-Cx2_NVS_HBA_On_x000D_
-Cx3_NVS_Invalid</t>
-  </si>
-  <si>
-    <t>HVIA_MDPS</t>
-  </si>
-  <si>
-    <t>HkmcVehicleInput_LkaToiUnblSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_ContM_HighControlMode_BCM
+Cx1_ContM_HighControlMode_HBA
+Cx2_ContM_Not_Used
+Cx3_ContM_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_LkaTUS_Available
 Cx1_LkaTUS_Unavailable
 Cx2_LkaTUS_Not_Used
 Cx3_LkaTUS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU_01_20ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_Crc1Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_AlvCnt1Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_DtntOutSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_SpdUnitTyp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_SWRCLFASwSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_RhstaLvlSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_DisSpdVal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU_05_00ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AAsstSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_Fca1stWrngSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_HADSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_IslwSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_StaRst1Req</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU_12_00ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_Crc12Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_AlvCnt12Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasUSMResetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasFCASetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasSCCDrvModSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasDAWModSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasHDASetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasNSCCCamSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasLFASetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasBCASetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasISLWSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasWrngTimingSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasLVDASetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasNSCCCrvSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU_13_00ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_Crc13Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLU_AlvCnt13Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasLkaModSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasFCAJnctnSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasHbaSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasSCCMLSetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM_AdasSCCMLResetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_MDPS_01_10ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_Crc1Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_AlvCnt1Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_Typ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_PaModeSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_LkaPlgInSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_LkaToiActvSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_LkaToiUnblSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_LkaToiFltSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_LkaFailSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_FlxStrSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_CurrModVal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_OutTqVal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDPS_StrTqSnsrVal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_BCM_08_200ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCM_Crc8Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCM_AlvCnt8Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamp_HbaCtrlModTyp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HVIA_MDPS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HVIA_BCM</t>
-  </si>
-  <si>
-    <t>HkmcVehInput_HBA_ControlMode</t>
-  </si>
-  <si>
-    <t>Cx0_ContM_HighControlMode_BCM_x000D_
-Cx1_ContM_HighControlMode_HBA_x000D_
-Cx2_ContM_Not_Used_x000D_
-Cx3_ContM_Error_Indicator</t>
-  </si>
-  <si>
-    <t>2G</t>
-  </si>
-  <si>
-    <t>HSYS_CLU11</t>
-  </si>
-  <si>
-    <t>CF_Clu_CruiseSwState</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Cx0_CruiseSS_IdlePosition_x000D_
-Cx1_CruiseSS_Resume_Plus_x000D_
-Cx2_CruiseSS_Set_Minus_x000D_
-Cx3_CruiseSS_Time_Gap_x000D_
-Cx4_CruiseSS_ACC_SCC_Cancel_x000D_
-Cx5_CruiseSS_Reserved_x000D_
-Cx6_CruiseSS_Reserved_x000D_
-Cx7_CruiseSS_Reserved</t>
-  </si>
-  <si>
-    <t>CF_Clu_CruiseSwMain</t>
-  </si>
-  <si>
-    <t>Cx0_CruiseSM_Off_x000D_
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_CruiseSM_Off
 Cx1_CruiseSM_On</t>
-  </si>
-  <si>
-    <t>CF_Clu_SldMainSW</t>
-  </si>
-  <si>
-    <t>Cx0_SldMS_Off_x000D_
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SldMS_Off
 Cx1_SldSMS_On</t>
-  </si>
-  <si>
-    <t>CF_Clu_ParityBit1</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>CF_Clu_VanzDecimal</t>
-  </si>
-  <si>
-    <t>CF_Clu_Vanz</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>CF_Clu_SPEED_UNIT</t>
-  </si>
-  <si>
-    <t>Cx0_SpeedU_kmperh_x000D_
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SpeedU_kmperh
 Cx1_SpeedU_MPH</t>
-  </si>
-  <si>
-    <t>CF_Clu_DetentOut</t>
-  </si>
-  <si>
-    <t>Cx0_DO_DetentOff_x000D_
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DO_DetentOff
 Cx1_DO_DetentOn</t>
-  </si>
-  <si>
-    <t>CF_Clu_RheostatLevel</t>
-  </si>
-  <si>
-    <t>Cx0_RheoL_Reserved_x000D_
-Cx1_RheoL_Step1_x000D_
-Cx2_RheoL_Step2_x000D_
-Cx3_RheoL_Step3_x000D_
-Cx4_RheoL_Step4_x000D_
-Cx5_RheoL_Step5_x000D_
-Cx6_RheoL_Step6_x000D_
-Cx7_RheoL_Step7_x000D_
-Cx8_RheoL_Step8_x000D_
-Cx9_RheoL_Step9_x000D_
-CxA_RheoL_Step10_x000D_
-CxB_RheoL_Step11_x000D_
-CxC_RheoL_Step12_x000D_
-CxD_RheoL_Step13_x000D_
-CxE_RheoL_Step14_x000D_
-CxF_RheoL_Step15_x000D_
-Cx10_RheoL_Step16_x000D_
-Cx11_RheoL_Step17_x000D_
-Cx12_RheoL_Step18_x000D_
-Cx13_RheoL_Step19_x000D_
-Cx14_RheoL_Step20_x000D_
-Cx15_RheoL_Step21</t>
-  </si>
-  <si>
-    <t>CF_Clu_AliveCnt1</t>
-  </si>
-  <si>
-    <t>HSYS_CLU19</t>
-  </si>
-  <si>
-    <t>CF_AVN_FCANValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_FCANVS_Default
-Cx1_FCANVS_Off
-Cx2_FCANVS_Warning
-Cx3_FCANVS_Assist
-Cx4_FCANVS_Reserved
-Cx5_FCANVS_Reserved
-Cx6_FCANVS_Reserved
-Cx7_FCANVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_CluUSMReset</t>
-  </si>
-  <si>
-    <t>Cx0_CluUSMR_Default
-Cx1_CluUSMR_Reset</t>
-  </si>
-  <si>
-    <t>CF_AVN_SCCDrvModeNValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_SCCDrvMNVS_Default
-Cx1_SCCDrvMNVS_Comfort
-Cx2_SCCDrvMNVS_Normal
-Cx3_SCCDrvMNVS_Dynamic
-Cx4_SCCDrvMNVS_Reserved
-Cx5_SCCDrvMNVS_Reserved
-Cx6_SCCDrvMNVS_Reserved
-Cx7_SCCDrvMNVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_NSCCCamNValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_NSCCCNVS_Default
-Cx1_NSCCCNVS_Disable
-Cx2_NSCCCNVS_Enable
-Cx3_NSCCCNVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_WarningTimingNValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_WarnTNVS_Default
-Cx1_WarnTNVS_LDW_Mode
-Cx2_WarnTNVS_LKA_Mode
-Cx3_WarnTNVS_Reserved
-Cx4_WarnTNVS_Reserved
-Cx5_WarnTNVS_Reserved
-Cx6_WarnTNVS_Reserved
-Cx7_WarnTNVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_LVDANValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_LVDANLVS_Default
-Cx1_LVDANLVS_Off
-Cx2_LVDANLVS_On
-Cx3_LVDANLVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_LkaModeNValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_LkaMNVS_Default
-Cx1_LkaMNVS_LDW_mode
-Cx2_LkaMNVS_LKA_mode
-Cx3_LkaMNVS_ACTIVE_LKA
-Cx4_LkaMNVS_LDW_ON
-Cx5_LkaMNVS_LDW_OFF
-Cx6_LkaMNVS_LDW_LKA_OFF
-Cx7_LkaMNVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_HBANValueSet</t>
-  </si>
-  <si>
-    <t>Cx0_HBANVS_Default
-Cx1_HBANVS_HBAOff
-Cx2_HBANVS_HBAOn
-Cx3_HBANVS_Invalid</t>
-  </si>
-  <si>
-    <t>CF_AVN_DAWModeNValueSet_New</t>
-  </si>
-  <si>
-    <t>Cx0_DAWMNVSN_Default
-Cx1_DAWMNVSN_Off
-Cx2_DAWMNVSN_On
-Cx3_DAWMNVSN_Invalid</t>
-  </si>
-  <si>
-    <t>CF_Clu_DawResetReq</t>
-  </si>
-  <si>
-    <t>Cx0_DawRR_Default_x000D_
-Cx1_DawRR_ResetReq</t>
-  </si>
-  <si>
-    <t>HSYS_MDPS12</t>
-  </si>
-  <si>
-    <t>CR_Mdps_StrColTq</t>
-  </si>
-  <si>
-    <t>Int8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The human driver input torque on the steering column as measured by the MDPS torque and angle sensor. </t>
-  </si>
-  <si>
-    <t>CF_Mdps_Def</t>
-  </si>
-  <si>
-    <t>Cx0_Def_Not_Defective
-Cx1_Def_Defective</t>
-  </si>
-  <si>
-    <t>CF_Mdps_ToiUnavail</t>
-  </si>
-  <si>
-    <t>Cx0_TU_Available
-Cx1_TU_Unavailable</t>
-  </si>
-  <si>
-    <t>CF_Mdps_ToiActive</t>
-  </si>
-  <si>
-    <t>Cx0_TA_Deactivated
-Cx1_TA_Activated</t>
-  </si>
-  <si>
-    <t>CF_Mdps_ToiFlt</t>
-  </si>
-  <si>
-    <t>Cx0_TF_NoFault
-Cx1_TF_Faulty</t>
-  </si>
-  <si>
-    <t>CF_Mdps_FailStat</t>
-  </si>
-  <si>
-    <t>Cx0_MdpsFS_NotFailState
-Cx1_MdpsFS_FailState</t>
-  </si>
-  <si>
-    <t>CF_Mdps_MsgCount2</t>
-  </si>
-  <si>
-    <t>This is a counter (counts continuously from 0 to its maximum bit count and back to 0 again), that can be used for checking the internal logic of the LKA controller.</t>
-  </si>
-  <si>
-    <t>CF_Mdps_Chksum2</t>
-  </si>
-  <si>
-    <t>CF_Mdps_SErr</t>
-  </si>
-  <si>
-    <t>Cx0_SE_VSM1Signal_NotError_x000D_
-Cx1_SE_VSM1Signal_Error</t>
-  </si>
-  <si>
-    <t>CR_Mdps_StrTq</t>
-  </si>
-  <si>
-    <t>CR_Mdps_OutTq</t>
-  </si>
-  <si>
-    <t>Int16</t>
-  </si>
-  <si>
-    <t>HSYS_CGW1</t>
-  </si>
-  <si>
-    <t>CF_Gway_IGNSw</t>
-  </si>
-  <si>
-    <t>Cx0_IGNS_KeyOff_x000D_
-Cx1_IGNS_KeyIn_x000D_
-Cx2_IGNS_ACC_x000D_
-Cx3_IGNS_IGN_x000D_
-Cx4_IGNS_Start_x000D_
-Cx7_IGNS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_RKECmd</t>
-  </si>
-  <si>
-    <t>Cx0_RKEC_None
-Cx1_RKEC_Lock
-Cx2_RKEC_Unlock
-Cx3_RKEC_Panic
-Cx4_RKEC_PanicStop
-Cx5_RKEC_Trunk
-Cx6_RKEC_Reserved
-Cx7_RKEC_Reserved</t>
-  </si>
-  <si>
-    <t>CF_Gway_DrvDrSw</t>
-  </si>
-  <si>
-    <t>Cx0_DrvDS_Close
-Cx1_DrvDS_Open
-Cx3_DrvDS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_DrvSeatBeltSw</t>
-  </si>
-  <si>
-    <t>Cx0_DrvSBS_Unbelted
-Cx1_DrvSBS_Belted
-Cx3_DrvSBS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_TrunkTgSw</t>
-  </si>
-  <si>
-    <t>Cx0_TrunkTS_TrunckClose
-Cx1_TrunkTS_TrunkOpen
-Cx3_TrunkTS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_SMKOption</t>
-  </si>
-  <si>
-    <t>Cx0_SMKO_NonSMKOption
-Cx1_SMKO_SMKOption</t>
-  </si>
-  <si>
-    <t>CF_Gway_HoodSw</t>
-  </si>
-  <si>
-    <t>Cx0_HoodS_HoodClose
-Cx1_HoodS_HoodOpen
-Cx3_HoodS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_TurnSigLh</t>
-  </si>
-  <si>
-    <t>Cx0_TurnSL_Off
-Cx1_TurnSL_On
-Cx3_TurnSL_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_WiperIntT</t>
-  </si>
-  <si>
-    <t>Cx0_WiperIT_Step1
-Cx1_WiperIT_Step2
-Cx2_WiperIT_Step3
-Cx3_WiperIT_Step4
-Cx4_WiperIT_Step5</t>
-  </si>
-  <si>
-    <t>CF_Gway_WiperIntSw</t>
-  </si>
-  <si>
-    <t>Cx0_WiperIS_Off
-Cx1_WiperIS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_WiperLowSw</t>
-  </si>
-  <si>
-    <t>Cx0_WiperLS_Off
-Cx1_WiperLS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_WiperHighSw</t>
-  </si>
-  <si>
-    <t>Cx0_WiperHS_Off_x000D_
-Cx1_WiperHS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_WiperAutoSw</t>
-  </si>
-  <si>
-    <t>Cx0_WiperAS_Off
-Cx1_WiperAS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_HeadLampLow</t>
-  </si>
-  <si>
-    <t>Cx0_HeadLL_Off
-Cx1_HeadLL_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_HeadLampHigh</t>
-  </si>
-  <si>
-    <t>Cx0_HeadLH_Off_x000D_
-Cx1_HeadLH_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_HazardSw</t>
-  </si>
-  <si>
-    <t>Cx0_HazS_Off
-Cx1_HazS_On
-Cx3_HazS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_AstDrSw</t>
-  </si>
-  <si>
-    <t>Cx0_AstDS_Close
-Cx1_AstDS_Open</t>
-  </si>
-  <si>
-    <t>CF_Gway_LightSwState</t>
-  </si>
-  <si>
-    <t>Cx0_LightSS_LightSwOff
-Cx1_LightSS_TailSwOn
-Cx2_LightSS_HeadLampLowSwOn
-Cx3_LightSS_AutoLightSWOn or DRL Sw On</t>
-  </si>
-  <si>
-    <t>CF_Gway_TSigRHSw</t>
-  </si>
-  <si>
-    <t>Cx0_TSRS_Off
-Cx1_TSRS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_TSigLHSw</t>
-  </si>
-  <si>
-    <t>Cx0_TSLS_Off
-Cx1_TSLS_On</t>
-  </si>
-  <si>
-    <t>CF_Gway_DriveTypeOption</t>
-  </si>
-  <si>
-    <t>Cx0_DrvTO_LHD
-Cx1_DrvTO_RHD</t>
-  </si>
-  <si>
-    <t>CF_Gway_PassiveAccessLock</t>
-  </si>
-  <si>
-    <t>Cx0_PassAL_None
-Cx1_PassAL_Lock
-Cx2_PassAL_PassiveTrunkLock</t>
-  </si>
-  <si>
-    <t>CF_Gway_PassiveAccessUnlock</t>
-  </si>
-  <si>
-    <t>Cx0_PassAU_None
-Cx1_PassAU_UnLock
-Cx2_PassAU_UnlockOnlyDrvDoor
-Cx3_PassAU_PICKeyReminder</t>
-  </si>
-  <si>
-    <t>CF_Gway_PassingSW</t>
-  </si>
-  <si>
-    <t>Cx0_PassS_SwOFF
-Cx1_PassS_SwOn</t>
-  </si>
-  <si>
-    <t>CF_Gway_HBAControlMode</t>
-  </si>
-  <si>
-    <t>Cx0_HCM_HighControlModebyBCM
-Cx1_HCM_HighControlModebyHBA</t>
-  </si>
-  <si>
-    <t>CF_Gway_InhibitRMT</t>
-  </si>
-  <si>
-    <t>Cx0_IRMT_GearRSwitchOff
-Cx1_IRMT_GearRSwitchOn
-Cx3_IRMT_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_RainSnsOption</t>
-  </si>
-  <si>
-    <t>Cx0_RainSO_NonRainSensorOption
-Cx1_RainSO_RainSensorOption</t>
-  </si>
-  <si>
-    <t>CF_SunRoofOpenState</t>
-  </si>
-  <si>
-    <t>Cx0_SunROS_Close
-Cx1_SunROS_Open</t>
-  </si>
-  <si>
-    <t>CF_Gway_ParkBrakeSw</t>
-  </si>
-  <si>
-    <t>Cx0_ParkBS_Off
-Cx1_ParkBS_On
-Cx3_ParkBS_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>CF_Gway_TurnSigRh</t>
-  </si>
-  <si>
-    <t>Cx0_TurnSR_Off
-Cx1_TurnSR_On
-Cx3_TurnSR_BCANSignalTimeOut</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>HSYS_CLU_01_20ms</t>
-  </si>
-  <si>
-    <t>CLU_Crc1Val</t>
-  </si>
-  <si>
-    <t>CLU_AlvCnt1Val</t>
-  </si>
-  <si>
-    <t>CLU_DtntOutSta</t>
-  </si>
-  <si>
-    <t>Cx0_DtntOS_Detent_Off
-Cx1_DtntOS_Detent_On
-Cx2_DtntOS_Not_used
-Cx3_DtntOS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>CLU_SpdUnitTyp</t>
-  </si>
-  <si>
-    <t>CLU_SWRCLFASwSta</t>
-  </si>
-  <si>
-    <t>Cx0_SWRCLFASS_Off
-Cx1_SWRCLFASS_Key_On
-Cx2_SWRCLFASS_Reserved
-Cx3_SWRCLFASS_Invalid</t>
-  </si>
-  <si>
-    <t>CLU_RhstaLvlSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_RheoL_Reserved
@@ -792,426 +1067,467 @@
 Cx13_RheoL_Step19
 Cx14_RheoL_Step20
 Cx15_RheoL_Step21</t>
-  </si>
-  <si>
-    <t>CLU_DisSpdVal</t>
-  </si>
-  <si>
-    <t>Cx0_Error , Only one value is defined in DBC file</t>
-  </si>
-  <si>
-    <t>HSYS_CLU_05_00ms</t>
-  </si>
-  <si>
-    <t>USM_AAsstSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AAsstSR_Default
-Cx1_AAsstSR_OFF
-Cx2_AAsstSR_Late
-Cx3_AAsstSR_Normal
-Cx4_AAsstSR_Early
-Cx5_AAsstSR_Reserved
-Cx6_AAsstSR_Reserved
-Cx7_AAsstSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_Fca1stWrngSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_Fca1stWSR_Default
-Cx1_Fca1stWSR_On_Late
-Cx2_Fca1stWSR_ON_Normal
-Cx3_Fca1stWSR_ON_Early
-Cx4_Fca1stWSR_Reserved
-Cx5_Fca1stWSR_Reserved
-Cx6_Fca1stWSR_Reserved
-Cx7_Fca1stWSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_HADSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_HADSR_Default
-Cx1_HADSR_Function_On
-Cx2_HADSR_Function_Off
-Cx3_HADSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_IslwSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_IslwSR_Default
-Cx1_IslwSR_Disable
-Cx2_IslwSR_Enable
-Cx3_IslwSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_StaRst1Req</t>
-  </si>
-  <si>
-    <t>Cx0_StaR1R_Default
-Cx1_StaR1R_Reset
-Cx2_StaR1R_Not_Used
-Cx3_StaR1R_Error_Indicator</t>
-  </si>
-  <si>
-    <t>HSYS_CLU_12_00ms</t>
-  </si>
-  <si>
-    <t>CLU_Crc12Val</t>
-  </si>
-  <si>
-    <t>CLU_AlvCnt12Val</t>
-  </si>
-  <si>
-    <t>USM_AdasUSMResetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasUSMRR_Default
-Cx1_AdasUSMRR_Reset
-Cx2_AdasUSMRR_Reserved
-Cx3_AdasUSMRR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasFCASetReq</t>
-  </si>
-  <si>
-    <t>USM_AdasSCCDrvModSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCDMSR_Default
-Cx1_AdasSCCDMSR_Comfort
-Cx2_AdasSCCDMSR_Normal
-Cx3_AdasSCCDMSR_Dynamic
-Cx4_AdasSCCDMSR_Reserved
-Cx5_AdasSCCDMSR_Reserved
-Cx6_AdasSCCDMSR_Reserved
-Cx7_AdasSCCDMSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasDAWModSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasDAWMSR_Default
-Cx1_AdasDAWMSR_Off
-Cx2_AdasDAWMSR_Reserved
-Cx3_AdasDAWMSR_Normal
-Cx4_AdasDAWMSR_Early
-Cx5_AdasDAWMSR_Reserved
-Cx6_AdasDAWMSR_Reserved
-Cx7_AdasDAWMSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasHDASetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasHDASR_Default
-Cx1_AdasHDASR_Function_Off
-Cx2_AdasHDASR_Function_On
-Cx3_AdasHDASR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasNSCCCamSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasNSCCCSR_Default
-Cx1_AdasNSCCCSR_Disable
-Cx2_AdasNSCCCSR_Enable
-Cx3_AdasNSCCCSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasLFASetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasLFASR_Default
-Cx1_AdasLFASR_Function_Off
-Cx2_AdasLFASR_Function_On
-Cx3_AdasLFASR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasBCASetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasBCASR_Default
-Cx1_AdasBCASR_Off
-Cx2_AdasBCASR_Warning
-Cx3_AdasBCASR_Assist
-Cx4_AdasBCASR_Reserved
-Cx5_AdasBCASR_Reserved
-Cx6_AdasBCASR_Reserved
-Cx7_AdasBCASR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasISLWSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasISLWSR_Default_x000D_
-Cx1_AdasISLWSR_Disable_x000D_
-Cx2_AdasISLWSR_Enable_x000D_
-Cx3_AdasISLWSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasWrngTimingSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasWrngTSR_Default
-Cx1_AdasWrngTSR_Late
-Cx2_AdasWrngTSR_Normal
-Cx3_AdasWrngTSR_Reserved
-Cx4_AdasWrngTSR_Reserved
-Cx5_AdasWrngTSR_Reserved
-Cx6_AdasWrngTSR_Reserved
-Cx7_AdasWrngTSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasLVDASetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasLVDASR_Default
-Cx1_AdasLVDASR_Off
-Cx2_AdasLVDASR_On
-Cx3_AdasLVDASR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasNSCCCrvSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasNSCCCSR_Default_x000D_
-Cx1_AdasNSCCCSR_Disable_x000D_
-Cx2_AdasNSCCCSR_Enable_x000D_
-Cx3_AdasNSCCCSR_Invalid</t>
-  </si>
-  <si>
-    <t>HSYS_CLU_13_00ms</t>
-  </si>
-  <si>
-    <t>CLU_Crc13Val</t>
-  </si>
-  <si>
-    <t>CLU_AlvCnt13Val</t>
-  </si>
-  <si>
-    <t>USM_AdasLkaModSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasLkaMSR_Default
-Cx1_AdasLkaMSR_LDW_mode
-Cx2_AdasLkaMSR_LKA_mode
-Cx3_AdasLkaMSR_ACTIVE_LKA
-Cx4_AdasLkaMSR_LDW_ON
-Cx5_AdasLkaMSR_LDW_OFF
-Cx6_AdasLkaMSR_LDW/LKA_OFF
-Cx7_AdasLkaMSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasFCAJnctnSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasFCAJSR_Default
-Cx1_AdasFCAJSR_Off
-Cx2_AdasFCAJSR_On
-Cx3_AdasFCAJSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasHbaSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasHbaSR_Default
-Cx1_AdasHbaSR_Off
-Cx2_AdasHbaSR_On
-Cx3_AdasHbaSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasSCCMLSetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCMLSR_Default
-Cx1_AdasSCCMLSR_Off
-Cx2_AdasSCCMLSR_On
-Cx3_AdasSCCMLSR_Invalid</t>
-  </si>
-  <si>
-    <t>USM_AdasSCCMLResetReq</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCMLRR_Default_x000D_
-Cx1_AdasSCCMLRR_Reset_x000D_
-Cx2_AdasSCCMLRR_Reserved_x000D_
-Cx3_AdasSCCMLRR_Invalid</t>
-  </si>
-  <si>
-    <t>HSYS_MDPS_01_10ms</t>
-  </si>
-  <si>
-    <t>MDPS_Crc1Val</t>
-  </si>
-  <si>
-    <t>MDPS_AlvCnt1Val</t>
-  </si>
-  <si>
-    <t>MDPS_Typ</t>
-  </si>
-  <si>
-    <t>Cx0_Typ_C-MDPS
-Cx1_Typ_R-MDPS_Pinion
-Cx2_Typ_R-MDPS_Belt
-Cx6_Typ_Not_Used
-Cx7_Typ_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_PaModeSta</t>
-  </si>
-  <si>
-    <t>MDPS_LkaPlgInSta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSYS_CLU11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_FCANVS_Default
+Cx1_FCANVS_Off
+Cx2_FCANVS_Warning
+Cx3_FCANVS_Assist
+Cx4_FCANVS_Reserved
+Cx5_FCANVS_Reserved
+Cx6_FCANVS_Reserved
+Cx7_FCANVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_CluUSMR_Default
+Cx1_CluUSMR_Reset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SCCDrvMNVS_Default
+Cx1_SCCDrvMNVS_Comfort
+Cx2_SCCDrvMNVS_Normal
+Cx3_SCCDrvMNVS_Dynamic
+Cx4_SCCDrvMNVS_Reserved
+Cx5_SCCDrvMNVS_Reserved
+Cx6_SCCDrvMNVS_Reserved
+Cx7_SCCDrvMNVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_NSCCCNVS_Default
+Cx1_NSCCCNVS_Disable
+Cx2_NSCCCNVS_Enable
+Cx3_NSCCCNVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WarnTNVS_Default
+Cx1_WarnTNVS_LDW_Mode
+Cx2_WarnTNVS_LKA_Mode
+Cx3_WarnTNVS_Reserved
+Cx4_WarnTNVS_Reserved
+Cx5_WarnTNVS_Reserved
+Cx6_WarnTNVS_Reserved
+Cx7_WarnTNVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LVDANLVS_Default
+Cx1_LVDANLVS_Off
+Cx2_LVDANLVS_On
+Cx3_LVDANLVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaMNVS_Default
+Cx1_LkaMNVS_LDW_mode
+Cx2_LkaMNVS_LKA_mode
+Cx3_LkaMNVS_ACTIVE_LKA
+Cx4_LkaMNVS_LDW_ON
+Cx5_LkaMNVS_LDW_OFF
+Cx6_LkaMNVS_LDW_LKA_OFF
+Cx7_LkaMNVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HBANVS_Default
+Cx1_HBANVS_HBAOff
+Cx2_HBANVS_HBAOn
+Cx3_HBANVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DAWMNVSN_Default
+Cx1_DAWMNVSN_Off
+Cx2_DAWMNVSN_On
+Cx3_DAWMNVSN_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DawRR_Default
+Cx1_DawRR_ResetReq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The human driver input torque on the steering column as measured by the MDPS torque and angle sensor. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_Def_Not_Defective
+Cx1_Def_Defective</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TU_Available
+Cx1_TU_Unavailable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TA_Deactivated
+Cx1_TA_Activated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TF_NoFault
+Cx1_TF_Faulty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_MdpsFS_NotFailState
+Cx1_MdpsFS_FailState</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SE_VSM1Signal_NotError
+Cx1_SE_VSM1Signal_Error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_IGNS_KeyOff
+Cx1_IGNS_KeyIn
+Cx2_IGNS_ACC
+Cx3_IGNS_IGN
+Cx4_IGNS_Start
+Cx7_IGNS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_RKEC_None
+Cx1_RKEC_Lock
+Cx2_RKEC_Unlock
+Cx3_RKEC_Panic
+Cx4_RKEC_PanicStop
+Cx5_RKEC_Trunk
+Cx6_RKEC_Reserved
+Cx7_RKEC_Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DrvDS_Close
+Cx1_DrvDS_Open
+Cx3_DrvDS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DrvSBS_Unbelted
+Cx1_DrvSBS_Belted
+Cx3_DrvSBS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SMKO_NonSMKOption
+Cx1_SMKO_SMKOption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TurnSL_Off
+Cx1_TurnSL_On
+Cx3_TurnSL_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HoodS_HoodClose
+Cx1_HoodS_HoodOpen
+Cx3_HoodS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WiperIS_Off
+Cx1_WiperIS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WiperHS_Off
+Cx1_WiperHS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HeadLL_Off
+Cx1_HeadLL_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_NVS_Default
+Cx1_NVS_HBA_Off
+Cx2_NVS_HBA_On
+Cx3_NVS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasFCASR_Default
+Cx1_AdasFCASR_Off
+Cx2_AdasFCASR_Warning
+Cx3_AdasFCASR_Assist
+Cx4_AdasFCASR_Reserved
+Cx5_AdasFCASR_Reserved
+Cx6_AdasFCASR_Reserved
+Cx7_AdasFCASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TrunkTS_TrunckClose
+Cx1_TrunkTS_TrunkOpen
+Cx3_TrunkTS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WiperIT_Step1
+Cx1_WiperIT_Step2
+Cx2_WiperIT_Step3
+Cx3_WiperIT_Step4
+Cx4_WiperIT_Step5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WiperLS_Off
+Cx1_WiperLS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_WiperAS_Off
+Cx1_WiperAS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a counter (counts continuously from 0 to its maximum bit count and back to 0 again), that can be used for checking the internal logic of the LKA controller.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HeadLH_Off
+Cx1_HeadLH_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HazS_Off
+Cx1_HazS_On
+Cx3_HazS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AstDS_Close
+Cx1_AstDS_Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LightSS_LightSwOff
+Cx1_LightSS_TailSwOn
+Cx2_LightSS_HeadLampLowSwOn
+Cx3_LightSS_AutoLightSWOn_or_DRL_Sw_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TSRS_Off
+Cx1_TSRS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TSLS_Off
+Cx1_TSLS_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DrvTO_LHD
+Cx1_DrvTO_RHD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_PassAL_None
+Cx1_PassAL_Lock
+Cx2_PassAL_PassiveTrunkLock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_PassAU_None
+Cx1_PassAU_UnLock
+Cx2_PassAU_UnlockOnlyDrvDoor
+Cx3_PassAU_PICKeyReminder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_PassS_SwOFF
+Cx1_PassS_SwOn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HCM_HighControlModebyBCM
+Cx1_HCM_HighControlModebyHBA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_IRMT_GearRSwitchOff
+Cx1_IRMT_GearRSwitchOn
+Cx3_IRMT_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_RainSO_NonRainSensorOption
+Cx1_RainSO_RainSensorOption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SunROS_Close
+Cx1_SunROS_Open</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_ParkBS_Off
+Cx1_ParkBS_On
+Cx3_ParkBS_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_TurnSR_Off
+Cx1_TurnSR_On
+Cx3_TurnSR_BCANSignalTimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_DtntOS_Detent_Off
+Cx1_DtntOS_Detent_On
+Cx2_DtntOS_Not_used
+Cx3_DtntOS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SpdUT_kmperh
+Cx1_SpdUT_MPH
+Cx2_SpdUT_Not_used
+Cx3_SpdUT_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_SWRCLFASS_Off
+Cx1_SWRCLFASS_Key_On
+Cx2_SWRCLFASS_Reserved
+Cx3_SWRCLFASS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_RheoL_Reserved
+Cx1_RheoL_Step1
+Cx2_RheoL_Step2
+Cx3_RheoL_Step3
+Cx4_RheoL_Step4
+Cx5_RheoL_Step5
+Cx6_RheoL_Step6
+Cx7_RheoL_Step7
+Cx8_RheoL_Step8
+Cx9_RheoL_Step9
+CxA_RheoL_Step10
+CxB_RheoL_Step11
+CxC_RheoL_Step12
+CxD_RheoL_Step13
+CxE_RheoL_Step14
+CxF_RheoL_Step15
+Cx10_RheoL_Step16
+Cx11_RheoL_Step17
+Cx12_RheoL_Step18
+Cx13_RheoL_Step19
+Cx14_RheoL_Step20
+Cx15_RheoL_Step21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:2, Factor : 0.125</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>U16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:16, Factor : 1, CLU_CyclicRedundancyCheck1Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, CLU_AliveCounter1Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:10, Factor : 0.5,CLU_DisplaySpeedValue
+Cx3FF : Error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:16, Factor : 1, CLU_CyclicRedundancyCheck12Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, CLU_AliveCounter12Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:16, Factor : 1, CLU_CyclicRedundancyCheck13Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, CLU_AliveCounter13Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, MDPS_AliveCounter1Value ##2G##MDPS - MDPS11 - CF_Mdps_AliveCnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:16, Factor : 1, MDPS_CyclicRedundancyCheck1Value ##2G##MDPS - MDPS11 - CF_Mdps_Chksum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_LkaPIS_MDPS_Not_Plugged
 Cx1_LkaPIS_MDPS_Plugged_In
 Cx2_LkaPIS_Not_Used
 Cx3_LkaPIS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_LkaToiActvSta</t>
-  </si>
-  <si>
-    <t>Cx0_LkaTAS_Deactivated
-Cx1_LkaTAS_Activated
-Cx2_LkaTAS_Not_Used
-Cx3_LkaTAS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_LkaToiUnblSta</t>
-  </si>
-  <si>
-    <t>Cx0_LkaTUS_Available
-Cx1_LkaTUS_Unavailable
-Cx2_LkaTUS_Not_used
-Cx3_LkaTUS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_LkaToiFltSta</t>
-  </si>
-  <si>
-    <t>Cx0_LkaTFS_No_Fault
-Cx1_LkaTFS_Faulty
-Cx2_LkaTFS_Not_used
-Cx3_LkaTFS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_LkaFailSta</t>
-  </si>
-  <si>
-    <t>Cx0_LkaFS_Not_Fail_State
-Cx1_LkaFS_Fail_State
-Cx2_LkaFS_Not_used
-Cx3_LkaFS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_FlxStrSta</t>
-  </si>
-  <si>
-    <t>Cx0_FlxSS_Standard_Mode
-Cx1_FlxSS_Sport_Mode
-Cx2_FlxSS_Comfort_Mode
-Cx3_FlxSS_Reserved
-Cx4_FlxSS_Reserved
-Cx5_FlxSS_Reserved
-Cx6_FlxSS_Not_Used
-Cx7_FlxSS_Invalid</t>
-  </si>
-  <si>
-    <t>MDPS_CurrModVal</t>
-  </si>
-  <si>
-    <t>Cx0_CurrMV_Standard_Mode
-Cx1_CurrMV_Sport_Mode
-Cx2_CurrMV_Comfort_Mode
-Cx3_CurrMV_Reserved
-Cx4_CurrMV_Reserved
-Cx5_CurrMV_Reserved
-Cx6_CurrMV_Not_Used
-Cx7_CurrMV_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_OutTqVal</t>
-  </si>
-  <si>
-    <t>Cx0_OutTV_Not_Used ; Cx1_OutTV_Error_Indicator</t>
-  </si>
-  <si>
-    <t>MDPS_StrTqSnsrVal</t>
-  </si>
-  <si>
-    <t>Cx0_StrTSV_Not_Used ; Cx1_StrTSV_Error_Indicator</t>
-  </si>
-  <si>
-    <t>HSYS_BCM_08_200ms</t>
-  </si>
-  <si>
-    <t>BCM_Crc8Val</t>
-  </si>
-  <si>
-    <t>BCM_AlvCnt8Val</t>
-  </si>
-  <si>
-    <t>Lamp_HbaCtrlModTyp</t>
-  </si>
-  <si>
-    <t>Cx0_HbaCMT_HighControlMode_BCM
-Cx1_HbaCMT_HighControlMode_HBA
-Cx2_HbaCMT_Not_Used
-Cx3_HbaCMT_Error_Indicator</t>
-  </si>
-  <si>
-    <t>HkmcVehicleInput SWC/VIPCDD SWC</t>
-  </si>
-  <si>
-    <t>VIPCDD SWC</t>
-  </si>
-  <si>
-    <t>Port Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HVIA_CGW</t>
-  </si>
-  <si>
-    <t>HkmcVehicleInputAdap</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopLevelCompostion/HkmcVehicleInput SWC</t>
-  </si>
-  <si>
-    <t>HkmcVehicleInput SWC</t>
-  </si>
-  <si>
-    <t>TopLevelCompostion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_PMS_Reserved
+Cx1_PMS_Steering_still_in_initialization_phase
+Cx2_PMS_Steering_ready_waits_for_PA_command
+Cx3_PMS_Steering_set_in_standby_PA
+Cx4_PMS_Steering_requested_to_go_to_first_activation_step
+Cx5_PMS_Steering_requested_to_go_to_final_activation_step
+Cx6_PMS_Steering_went_to_error_internally
+Cx7_PMS_Steering_aborted_the_automatic_function
+0xE_PMS_Not_Used
+0xF_PMS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:4, Factor : 1, BCM_AliveCounter8Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, BCM_CyclicRedundancyCheck8Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1222,7 +1538,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1231,7 +1547,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1239,20 +1555,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1260,7 +1576,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1268,7 +1584,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1276,21 +1592,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1300,8 +1616,32 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1395,6 +1735,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1710,7 +2056,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,6 +2207,13 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,6 +2249,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2297,16 +2660,16 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="72.75" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2339,7 +2702,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="15" thickBot="1">
+    <row r="2" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2372,15 +2735,15 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2407,7 +2770,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1">
+    <row r="4" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -2448,7 +2811,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31" ht="15" thickTop="1">
+    <row r="5" spans="1:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="8">
         <v>1</v>
@@ -2491,7 +2854,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="13"/>
       <c r="C6" s="21"/>
@@ -2530,7 +2893,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -2563,7 +2926,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -2596,7 +2959,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
@@ -2629,7 +2992,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -2662,7 +3025,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -2695,7 +3058,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -2728,7 +3091,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
@@ -2761,7 +3124,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="15" thickBot="1">
+    <row r="14" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -2794,7 +3157,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2827,7 +3190,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2860,7 +3223,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2893,7 +3256,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2926,7 +3289,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2959,7 +3322,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2992,7 +3355,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3025,7 +3388,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3058,7 +3421,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3091,7 +3454,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3124,7 +3487,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3157,7 +3520,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3190,7 +3553,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3223,7 +3586,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3256,7 +3619,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3289,7 +3652,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3322,7 +3685,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3355,7 +3718,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3388,7 +3751,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3421,7 +3784,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3454,7 +3817,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3487,7 +3850,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3520,7 +3883,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3553,7 +3916,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3586,7 +3949,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3619,7 +3982,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3652,7 +4015,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3685,7 +4048,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3718,7 +4081,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3751,7 +4114,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3784,7 +4147,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3817,7 +4180,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3850,7 +4213,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3883,7 +4246,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3916,7 +4279,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3964,36 +4327,36 @@
   <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M90" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="S116" sqref="S116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="17.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="30.28515625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="30.25" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.75" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="24" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="60.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="79.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="15.75" customWidth="1"/>
+    <col min="19" max="19" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.6" customHeight="1">
+    <row r="1" spans="1:25" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4411,7 @@
       <c r="X1" s="41"/>
       <c r="Y1" s="41"/>
     </row>
-    <row r="2" spans="1:25" ht="18" customHeight="1">
+    <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -4066,19 +4429,19 @@
         <v>1</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S2" s="53" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
@@ -4087,7 +4450,7 @@
       <c r="X2" s="41"/>
       <c r="Y2" s="41"/>
     </row>
-    <row r="3" spans="1:25" s="34" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:25" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -4108,16 +4471,16 @@
         <v>17</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S3" s="53" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
@@ -4126,7 +4489,7 @@
       <c r="X3" s="41"/>
       <c r="Y3" s="41"/>
     </row>
-    <row r="4" spans="1:25" ht="18" customHeight="1">
+    <row r="4" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -4147,16 +4510,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S4" s="53" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
@@ -4165,7 +4528,7 @@
       <c r="X4" s="41"/>
       <c r="Y4" s="41"/>
     </row>
-    <row r="5" spans="1:25" ht="18" customHeight="1">
+    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4183,19 +4546,19 @@
         <v>4</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S5" s="53" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -4204,7 +4567,7 @@
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
     </row>
-    <row r="6" spans="1:25" ht="18" customHeight="1">
+    <row r="6" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -4225,16 +4588,16 @@
         <v>17</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S6" s="53" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -4243,7 +4606,7 @@
       <c r="X6" s="41"/>
       <c r="Y6" s="41"/>
     </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -4261,19 +4624,19 @@
         <v>6</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S7" s="53" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
@@ -4282,7 +4645,7 @@
       <c r="X7" s="41"/>
       <c r="Y7" s="41"/>
     </row>
-    <row r="8" spans="1:25" ht="18" customHeight="1">
+    <row r="8" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -4300,19 +4663,19 @@
         <v>7</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="S8" s="53" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
@@ -4321,7 +4684,7 @@
       <c r="X8" s="41"/>
       <c r="Y8" s="41"/>
     </row>
-    <row r="9" spans="1:25" ht="18" customHeight="1">
+    <row r="9" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -4337,7 +4700,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="52"/>
       <c r="O9" s="28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -4350,7 +4713,7 @@
       <c r="X9" s="41"/>
       <c r="Y9" s="41"/>
     </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1">
+    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -4365,20 +4728,20 @@
       <c r="L10" s="41"/>
       <c r="M10" s="49"/>
       <c r="N10" s="52"/>
-      <c r="O10" s="61" t="s">
-        <v>37</v>
+      <c r="O10" s="64" t="s">
+        <v>220</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S10" s="55" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
@@ -4390,168 +4753,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="47"/>
       <c r="H11" s="48"/>
       <c r="M11" s="49"/>
       <c r="N11" s="52"/>
-      <c r="O11" s="62"/>
+      <c r="O11" s="65"/>
       <c r="P11" s="54" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="47"/>
       <c r="H12" s="48"/>
       <c r="M12" s="49"/>
       <c r="N12" s="52"/>
-      <c r="O12" s="62"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="54" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S12" s="55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="47"/>
       <c r="H13" s="48"/>
       <c r="M13" s="49"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="62"/>
+      <c r="O13" s="65"/>
       <c r="P13" s="54" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="54" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R13" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S13" s="55"/>
     </row>
-    <row r="14" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="47"/>
       <c r="H14" s="48"/>
       <c r="M14" s="49"/>
       <c r="N14" s="52"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="55"/>
-    </row>
-    <row r="15" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="O14" s="65"/>
+      <c r="P14" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="47"/>
       <c r="H15" s="48"/>
       <c r="M15" s="49"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="62"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="54" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="54" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R15" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S15" s="55"/>
     </row>
-    <row r="16" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="47"/>
       <c r="H16" s="48"/>
       <c r="M16" s="49"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="62"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="54" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R16" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S16" s="55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="47"/>
       <c r="H17" s="48"/>
       <c r="M17" s="49"/>
       <c r="N17" s="52"/>
-      <c r="O17" s="62"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="54" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S17" s="55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F18" s="47"/>
       <c r="H18" s="48"/>
       <c r="M18" s="49"/>
       <c r="N18" s="52"/>
-      <c r="O18" s="62"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="54" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R18" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S18" s="55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="47"/>
       <c r="H19" s="48"/>
       <c r="M19" s="49"/>
       <c r="N19" s="52"/>
-      <c r="O19" s="63"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="54" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="54" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R19" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S19" s="55"/>
     </row>
-    <row r="20" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F20" s="50"/>
       <c r="G20" s="49"/>
       <c r="H20" s="51"/>
@@ -4561,59 +4928,59 @@
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="52"/>
-      <c r="O20" s="61" t="s">
-        <v>57</v>
+      <c r="O20" s="64" t="s">
+        <v>93</v>
       </c>
       <c r="P20" s="54" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S20" s="55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="50"/>
       <c r="H21" s="51"/>
       <c r="N21" s="52"/>
-      <c r="O21" s="62"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="54" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R21" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S21" s="55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="50"/>
       <c r="H22" s="51"/>
       <c r="N22" s="52"/>
-      <c r="O22" s="62"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="54" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R22" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S22" s="55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="50"/>
       <c r="G23" s="49"/>
       <c r="H23" s="51"/>
@@ -4623,57 +4990,57 @@
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="52"/>
-      <c r="O23" s="62"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="54" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R23" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S23" s="55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="50"/>
       <c r="H24" s="51"/>
       <c r="N24" s="52"/>
-      <c r="O24" s="62"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="54" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R24" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S24" s="55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="50"/>
       <c r="H25" s="51"/>
       <c r="N25" s="52"/>
-      <c r="O25" s="62"/>
+      <c r="O25" s="65"/>
       <c r="P25" s="54" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R25" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S25" s="55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="50"/>
       <c r="G26" s="49"/>
       <c r="H26" s="51"/>
@@ -4683,75 +5050,75 @@
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="62"/>
+      <c r="O26" s="65"/>
       <c r="P26" s="54" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R26" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S26" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="50"/>
       <c r="H27" s="51"/>
       <c r="N27" s="52"/>
-      <c r="O27" s="62"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="54" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R27" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S27" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="50"/>
       <c r="H28" s="51"/>
       <c r="N28" s="52"/>
-      <c r="O28" s="62"/>
+      <c r="O28" s="65"/>
       <c r="P28" s="54" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S28" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="50"/>
       <c r="H29" s="51"/>
       <c r="N29" s="52"/>
-      <c r="O29" s="63"/>
+      <c r="O29" s="66"/>
       <c r="P29" s="54" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S29" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="50"/>
       <c r="G30" s="49"/>
       <c r="H30" s="51"/>
@@ -4761,721 +5128,721 @@
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="61" t="s">
-        <v>78</v>
+      <c r="O30" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="P30" s="54" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="54" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="R30" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S30" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="50"/>
       <c r="H31" s="51"/>
       <c r="N31" s="52"/>
-      <c r="O31" s="62"/>
+      <c r="O31" s="65"/>
       <c r="P31" s="54" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q31" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R31" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S31" s="55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="50"/>
       <c r="H32" s="51"/>
       <c r="N32" s="52"/>
-      <c r="O32" s="62"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="54" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R32" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S32" s="55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F33" s="50"/>
       <c r="H33" s="51"/>
       <c r="N33" s="52"/>
-      <c r="O33" s="62"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="54" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="Q33" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R33" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S33" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F34" s="50"/>
       <c r="H34" s="51"/>
       <c r="N34" s="52"/>
-      <c r="O34" s="62"/>
+      <c r="O34" s="65"/>
       <c r="P34" s="54" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="Q34" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R34" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S34" s="55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F35" s="50"/>
       <c r="H35" s="51"/>
       <c r="N35" s="52"/>
-      <c r="O35" s="62"/>
+      <c r="O35" s="65"/>
       <c r="P35" s="54" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R35" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S35" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="50"/>
       <c r="H36" s="51"/>
       <c r="N36" s="52"/>
-      <c r="O36" s="62"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="54" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q36" s="54" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R36" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S36" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F37" s="50"/>
       <c r="H37" s="51"/>
       <c r="N37" s="52"/>
-      <c r="O37" s="62"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="54" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="Q37" s="54" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="R37" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S37" s="55"/>
     </row>
-    <row r="38" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+    <row r="38" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F38" s="50"/>
       <c r="H38" s="51"/>
       <c r="N38" s="52"/>
-      <c r="O38" s="62"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="54" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Q38" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R38" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S38" s="55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F39" s="50"/>
       <c r="H39" s="51"/>
       <c r="N39" s="52"/>
-      <c r="O39" s="62"/>
+      <c r="O39" s="65"/>
       <c r="P39" s="54" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q39" s="54" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="R39" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S39" s="56"/>
     </row>
-    <row r="40" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+    <row r="40" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F40" s="50"/>
       <c r="H40" s="51"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="63"/>
+      <c r="O40" s="66"/>
       <c r="P40" s="54" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Q40" s="54" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="R40" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S40" s="56"/>
     </row>
-    <row r="41" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+    <row r="41" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F41" s="50"/>
       <c r="H41" s="51"/>
       <c r="N41" s="52"/>
-      <c r="O41" s="61" t="s">
-        <v>100</v>
+      <c r="O41" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="P41" s="32" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R41" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S41" s="55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F42" s="50"/>
       <c r="H42" s="51"/>
       <c r="N42" s="52"/>
-      <c r="O42" s="62"/>
+      <c r="O42" s="65"/>
       <c r="P42" s="32" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S42" s="55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F43" s="50"/>
       <c r="H43" s="51"/>
       <c r="N43" s="52"/>
-      <c r="O43" s="62"/>
+      <c r="O43" s="65"/>
       <c r="P43" s="32" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S43" s="55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="50"/>
       <c r="H44" s="51"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="62"/>
+      <c r="O44" s="65"/>
       <c r="P44" s="32" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="Q44" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S44" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45" s="50"/>
       <c r="H45" s="51"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="62"/>
+      <c r="O45" s="65"/>
       <c r="P45" s="32" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="Q45" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S45" s="55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F46" s="50"/>
       <c r="H46" s="51"/>
       <c r="N46" s="52"/>
-      <c r="O46" s="62"/>
+      <c r="O46" s="65"/>
       <c r="P46" s="32" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Q46" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S46" s="55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="50"/>
       <c r="H47" s="51"/>
       <c r="N47" s="52"/>
-      <c r="O47" s="62"/>
+      <c r="O47" s="65"/>
       <c r="P47" s="32" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q47" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R47" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S47" s="55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F48" s="50"/>
       <c r="H48" s="51"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="62"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="32" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q48" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S48" s="55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="50"/>
       <c r="H49" s="51"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="62"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S49" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="50"/>
       <c r="H50" s="51"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="62"/>
+      <c r="O50" s="65"/>
       <c r="P50" s="32" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q50" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S50" s="55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F51" s="50"/>
       <c r="H51" s="51"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="62"/>
+      <c r="O51" s="65"/>
       <c r="P51" s="54" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q51" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R51" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S51" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F52" s="50"/>
       <c r="H52" s="51"/>
       <c r="N52" s="52"/>
-      <c r="O52" s="62"/>
+      <c r="O52" s="65"/>
       <c r="P52" s="32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q52" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S52" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F53" s="50"/>
       <c r="H53" s="51"/>
       <c r="N53" s="52"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q53" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="R53" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S53" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O53" s="65"/>
+      <c r="P53" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q53" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F54" s="50"/>
       <c r="H54" s="51"/>
       <c r="N54" s="52"/>
-      <c r="O54" s="62"/>
+      <c r="O54" s="65"/>
       <c r="P54" s="32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q54" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R54" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S54" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F55" s="50"/>
       <c r="H55" s="51"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="62"/>
+      <c r="O55" s="65"/>
       <c r="P55" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q55" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S55" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F56" s="50"/>
       <c r="H56" s="51"/>
       <c r="N56" s="52"/>
-      <c r="O56" s="62"/>
+      <c r="O56" s="65"/>
       <c r="P56" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q56" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R56" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S56" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F57" s="50"/>
       <c r="H57" s="51"/>
       <c r="N57" s="52"/>
-      <c r="O57" s="62"/>
+      <c r="O57" s="65"/>
       <c r="P57" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q57" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R57" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S57" s="55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="50"/>
       <c r="H58" s="51"/>
       <c r="N58" s="52"/>
-      <c r="O58" s="62"/>
+      <c r="O58" s="65"/>
       <c r="P58" s="32" t="s">
         <v>135</v>
       </c>
       <c r="Q58" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R58" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S58" s="55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F59" s="50"/>
       <c r="H59" s="51"/>
       <c r="N59" s="52"/>
-      <c r="O59" s="62"/>
+      <c r="O59" s="65"/>
       <c r="P59" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q59" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S59" s="55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="50"/>
       <c r="H60" s="51"/>
       <c r="N60" s="52"/>
-      <c r="O60" s="62"/>
+      <c r="O60" s="65"/>
       <c r="P60" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q60" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R60" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S60" s="55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F61" s="50"/>
       <c r="H61" s="51"/>
       <c r="N61" s="52"/>
-      <c r="O61" s="62"/>
+      <c r="O61" s="65"/>
       <c r="P61" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q61" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R61" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S61" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F62" s="50"/>
       <c r="H62" s="51"/>
       <c r="N62" s="52"/>
-      <c r="O62" s="62"/>
+      <c r="O62" s="65"/>
       <c r="P62" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q62" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R62" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F63" s="50"/>
       <c r="H63" s="51"/>
       <c r="N63" s="52"/>
-      <c r="O63" s="62"/>
+      <c r="O63" s="65"/>
       <c r="P63" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q63" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R63" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S63" s="55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F64" s="50"/>
       <c r="H64" s="51"/>
       <c r="N64" s="52"/>
-      <c r="O64" s="62"/>
+      <c r="O64" s="65"/>
       <c r="P64" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q64" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R64" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F65" s="50"/>
       <c r="H65" s="51"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="62"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q65" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R65" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S65" s="55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F66" s="50"/>
       <c r="H66" s="51"/>
       <c r="N66" s="52"/>
-      <c r="O66" s="62"/>
+      <c r="O66" s="65"/>
       <c r="P66" s="54" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q66" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R66" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F67" s="50"/>
       <c r="H67" s="51"/>
       <c r="N67" s="52"/>
-      <c r="O67" s="62"/>
+      <c r="O67" s="65"/>
       <c r="P67" s="32" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q67" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R67" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S67" s="55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F68" s="50"/>
       <c r="H68" s="51"/>
       <c r="N68" s="52"/>
-      <c r="O68" s="62"/>
+      <c r="O68" s="65"/>
       <c r="P68" s="32" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q68" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R68" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F69" s="50"/>
       <c r="H69" s="51"/>
       <c r="N69" s="52"/>
-      <c r="O69" s="62"/>
+      <c r="O69" s="65"/>
       <c r="P69" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Q69" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R69" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S69" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F70" s="50"/>
       <c r="G70" s="49"/>
       <c r="H70" s="51"/>
@@ -5485,21 +5852,21 @@
       <c r="L70" s="49"/>
       <c r="M70" s="49"/>
       <c r="N70" s="52"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q70" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="R70" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S70" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="O70" s="66"/>
+      <c r="P70" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q70" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="R70" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="60" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F71" s="50"/>
       <c r="G71" s="49"/>
       <c r="H71" s="51"/>
@@ -5510,14 +5877,14 @@
       <c r="M71" s="49"/>
       <c r="N71" s="52"/>
       <c r="O71" s="28" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="P71" s="33"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="72" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F72" s="50"/>
       <c r="G72" s="49"/>
       <c r="H72" s="51"/>
@@ -5527,121 +5894,131 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="52"/>
-      <c r="O72" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="P72" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S72" s="56"/>
-    </row>
-    <row r="73" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O72" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q72" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="R72" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S72" s="74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F73" s="50"/>
       <c r="H73" s="51"/>
       <c r="N73" s="52"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S73" s="56"/>
-    </row>
-    <row r="74" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O73" s="65"/>
+      <c r="P73" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q73" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R73" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S73" s="74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F74" s="50"/>
       <c r="H74" s="51"/>
       <c r="N74" s="52"/>
-      <c r="O74" s="62"/>
+      <c r="O74" s="65"/>
       <c r="P74" s="54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q74" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R74" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S74" s="55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F75" s="50"/>
       <c r="H75" s="51"/>
       <c r="N75" s="52"/>
-      <c r="O75" s="62"/>
+      <c r="O75" s="65"/>
       <c r="P75" s="54" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q75" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R75" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S75" s="55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F76" s="50"/>
       <c r="H76" s="51"/>
       <c r="N76" s="52"/>
-      <c r="O76" s="62"/>
+      <c r="O76" s="65"/>
       <c r="P76" s="54" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q76" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R76" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S76" s="55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F77" s="50"/>
       <c r="H77" s="51"/>
       <c r="N77" s="52"/>
-      <c r="O77" s="62"/>
+      <c r="O77" s="65"/>
       <c r="P77" s="54" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q77" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R77" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S77" s="55" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F78" s="50"/>
       <c r="H78" s="51"/>
       <c r="N78" s="52"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S78" s="55" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="O78" s="66"/>
+      <c r="P78" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q78" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="R78" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" s="76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F79" s="50"/>
       <c r="G79" s="49"/>
       <c r="H79" s="51"/>
@@ -5651,95 +6028,95 @@
       <c r="L79" s="49"/>
       <c r="M79" s="49"/>
       <c r="N79" s="52"/>
-      <c r="O79" s="61" t="s">
-        <v>174</v>
+      <c r="O79" s="64" t="s">
+        <v>166</v>
       </c>
       <c r="P79" s="54" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q79" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R79" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S79" s="55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F80" s="50"/>
       <c r="H80" s="51"/>
       <c r="N80" s="52"/>
-      <c r="O80" s="62"/>
+      <c r="O80" s="65"/>
       <c r="P80" s="54" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q80" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R80" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S80" s="55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F81" s="50"/>
       <c r="H81" s="51"/>
       <c r="N81" s="52"/>
-      <c r="O81" s="62"/>
+      <c r="O81" s="65"/>
       <c r="P81" s="54" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q81" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R81" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S81" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F82" s="50"/>
       <c r="H82" s="51"/>
       <c r="N82" s="52"/>
-      <c r="O82" s="62"/>
+      <c r="O82" s="65"/>
       <c r="P82" s="54" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Q82" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R82" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S82" s="55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F83" s="50"/>
       <c r="H83" s="51"/>
       <c r="N83" s="52"/>
-      <c r="O83" s="63"/>
+      <c r="O83" s="66"/>
       <c r="P83" s="54" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="Q83" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R83" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="S83" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="S83" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+    </row>
+    <row r="84" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F84" s="50"/>
       <c r="G84" s="49"/>
       <c r="H84" s="51"/>
@@ -5749,249 +6126,257 @@
       <c r="L84" s="49"/>
       <c r="M84" s="49"/>
       <c r="N84" s="52"/>
-      <c r="O84" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="P84" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S84" s="55"/>
-    </row>
-    <row r="85" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O84" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="P84" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q84" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="R84" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S84" s="76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F85" s="50"/>
       <c r="H85" s="51"/>
       <c r="N85" s="52"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S85" s="55"/>
-    </row>
-    <row r="86" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O85" s="65"/>
+      <c r="P85" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q85" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R85" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S85" s="75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F86" s="50"/>
       <c r="H86" s="51"/>
       <c r="N86" s="52"/>
-      <c r="O86" s="62"/>
+      <c r="O86" s="65"/>
       <c r="P86" s="54" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q86" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R86" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S86" s="55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F87" s="50"/>
       <c r="H87" s="51"/>
       <c r="N87" s="52"/>
-      <c r="O87" s="62"/>
+      <c r="O87" s="65"/>
       <c r="P87" s="54" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Q87" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R87" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S87" s="55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F88" s="50"/>
       <c r="H88" s="51"/>
       <c r="N88" s="52"/>
-      <c r="O88" s="62"/>
+      <c r="O88" s="65"/>
       <c r="P88" s="54" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Q88" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R88" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S88" s="55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="50"/>
       <c r="H89" s="51"/>
       <c r="N89" s="52"/>
-      <c r="O89" s="62"/>
+      <c r="O89" s="65"/>
       <c r="P89" s="54" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q89" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R89" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S89" s="55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F90" s="50"/>
       <c r="H90" s="51"/>
       <c r="N90" s="52"/>
-      <c r="O90" s="62"/>
+      <c r="O90" s="65"/>
       <c r="P90" s="54" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="Q90" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R90" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S90" s="55" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F91" s="50"/>
       <c r="H91" s="51"/>
       <c r="N91" s="52"/>
-      <c r="O91" s="62"/>
+      <c r="O91" s="65"/>
       <c r="P91" s="54" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="Q91" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R91" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S91" s="55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F92" s="50"/>
       <c r="H92" s="51"/>
       <c r="N92" s="52"/>
-      <c r="O92" s="62"/>
+      <c r="O92" s="65"/>
       <c r="P92" s="54" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="Q92" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R92" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S92" s="55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F93" s="50"/>
       <c r="H93" s="51"/>
       <c r="N93" s="52"/>
-      <c r="O93" s="62"/>
+      <c r="O93" s="65"/>
       <c r="P93" s="54" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="Q93" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R93" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S93" s="55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F94" s="50"/>
       <c r="H94" s="51"/>
       <c r="N94" s="52"/>
-      <c r="O94" s="62"/>
+      <c r="O94" s="65"/>
       <c r="P94" s="54" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Q94" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R94" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S94" s="55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F95" s="50"/>
       <c r="H95" s="51"/>
       <c r="N95" s="52"/>
-      <c r="O95" s="62"/>
+      <c r="O95" s="65"/>
       <c r="P95" s="54" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="Q95" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R95" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S95" s="55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F96" s="50"/>
       <c r="H96" s="51"/>
       <c r="N96" s="52"/>
-      <c r="O96" s="62"/>
+      <c r="O96" s="65"/>
       <c r="P96" s="54" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="Q96" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R96" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S96" s="55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F97" s="50"/>
       <c r="H97" s="51"/>
       <c r="N97" s="52"/>
-      <c r="O97" s="63"/>
+      <c r="O97" s="66"/>
       <c r="P97" s="54" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="Q97" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R97" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S97" s="55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F98" s="50"/>
       <c r="G98" s="49"/>
       <c r="H98" s="51"/>
@@ -6001,123 +6386,131 @@
       <c r="L98" s="49"/>
       <c r="M98" s="49"/>
       <c r="N98" s="52"/>
-      <c r="O98" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="P98" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S98" s="55"/>
-    </row>
-    <row r="99" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O98" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="P98" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q98" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="R98" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F99" s="50"/>
       <c r="H99" s="51"/>
       <c r="N99" s="52"/>
-      <c r="O99" s="62"/>
-      <c r="P99" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S99" s="55"/>
-    </row>
-    <row r="100" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O99" s="65"/>
+      <c r="P99" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q99" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R99" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S99" s="76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F100" s="50"/>
       <c r="H100" s="51"/>
       <c r="N100" s="52"/>
-      <c r="O100" s="62"/>
+      <c r="O100" s="65"/>
       <c r="P100" s="54" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="Q100" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R100" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S100" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F101" s="50"/>
       <c r="H101" s="51"/>
       <c r="N101" s="52"/>
-      <c r="O101" s="62"/>
+      <c r="O101" s="65"/>
       <c r="P101" s="54" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="Q101" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R101" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S101" s="55" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F102" s="50"/>
       <c r="H102" s="51"/>
       <c r="N102" s="52"/>
-      <c r="O102" s="62"/>
+      <c r="O102" s="65"/>
       <c r="P102" s="54" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="Q102" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R102" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S102" s="55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F103" s="50"/>
       <c r="H103" s="51"/>
       <c r="N103" s="52"/>
-      <c r="O103" s="62"/>
+      <c r="O103" s="65"/>
       <c r="P103" s="54" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="Q103" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R103" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S103" s="55" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F104" s="50"/>
       <c r="H104" s="51"/>
       <c r="N104" s="52"/>
-      <c r="O104" s="63"/>
+      <c r="O104" s="66"/>
       <c r="P104" s="54" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q104" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R104" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S104" s="55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="50"/>
       <c r="G105" s="49"/>
       <c r="H105" s="51"/>
@@ -6127,229 +6520,239 @@
       <c r="L105" s="49"/>
       <c r="M105" s="49"/>
       <c r="N105" s="52"/>
-      <c r="O105" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="P105" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S105" s="55"/>
-    </row>
-    <row r="106" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O105" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="P105" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q105" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="R105" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F106" s="50"/>
       <c r="H106" s="51"/>
       <c r="N106" s="52"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S106" s="55"/>
-    </row>
-    <row r="107" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O106" s="65"/>
+      <c r="P106" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q106" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R106" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S106" s="76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F107" s="50"/>
       <c r="H107" s="51"/>
       <c r="N107" s="52"/>
-      <c r="O107" s="62"/>
+      <c r="O107" s="65"/>
       <c r="P107" s="54" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="Q107" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R107" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S107" s="55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="108" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F108" s="50"/>
       <c r="H108" s="51"/>
       <c r="N108" s="52"/>
-      <c r="O108" s="62"/>
-      <c r="P108" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q108" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="R108" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S108" s="55"/>
-    </row>
-    <row r="109" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O108" s="65"/>
+      <c r="P108" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q108" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="R108" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S108" s="75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F109" s="50"/>
       <c r="H109" s="51"/>
       <c r="N109" s="52"/>
-      <c r="O109" s="62"/>
+      <c r="O109" s="65"/>
       <c r="P109" s="54" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="Q109" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R109" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S109" s="55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F110" s="50"/>
       <c r="H110" s="51"/>
       <c r="N110" s="52"/>
-      <c r="O110" s="62"/>
+      <c r="O110" s="65"/>
       <c r="P110" s="54" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="Q110" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R110" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S110" s="55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F111" s="50"/>
       <c r="H111" s="51"/>
       <c r="N111" s="52"/>
-      <c r="O111" s="62"/>
+      <c r="O111" s="65"/>
       <c r="P111" s="54" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="Q111" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R111" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S111" s="55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F112" s="50"/>
       <c r="H112" s="51"/>
       <c r="N112" s="52"/>
-      <c r="O112" s="62"/>
+      <c r="O112" s="65"/>
       <c r="P112" s="54" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="Q112" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R112" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S112" s="55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F113" s="50"/>
       <c r="H113" s="51"/>
       <c r="N113" s="52"/>
-      <c r="O113" s="62"/>
+      <c r="O113" s="65"/>
       <c r="P113" s="54" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="Q113" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R113" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S113" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F114" s="50"/>
       <c r="H114" s="51"/>
       <c r="N114" s="52"/>
-      <c r="O114" s="62"/>
+      <c r="O114" s="65"/>
       <c r="P114" s="54" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="Q114" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R114" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S114" s="55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F115" s="50"/>
       <c r="H115" s="51"/>
       <c r="N115" s="52"/>
-      <c r="O115" s="62"/>
+      <c r="O115" s="65"/>
       <c r="P115" s="54" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="Q115" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R115" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S115" s="55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="116" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F116" s="50"/>
       <c r="H116" s="51"/>
       <c r="N116" s="52"/>
-      <c r="O116" s="62"/>
+      <c r="O116" s="65"/>
       <c r="P116" s="54" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="Q116" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R116" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S116" s="55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F117" s="50"/>
       <c r="H117" s="51"/>
       <c r="N117" s="52"/>
-      <c r="O117" s="63"/>
+      <c r="O117" s="66"/>
       <c r="P117" s="54" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="Q117" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R117" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S117" s="55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="118" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F118" s="50"/>
       <c r="G118" s="49"/>
       <c r="H118" s="51"/>
@@ -6359,33 +6762,41 @@
       <c r="L118" s="49"/>
       <c r="M118" s="49"/>
       <c r="N118" s="52"/>
-      <c r="O118" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="P118" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S118" s="56"/>
-    </row>
-    <row r="119" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="O118" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="P118" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q118" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R118" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S118" s="74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F119" s="50"/>
       <c r="H119" s="51"/>
       <c r="N119" s="52"/>
-      <c r="O119" s="62"/>
-      <c r="P119" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S119" s="56"/>
-    </row>
-    <row r="120" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="O119" s="65"/>
+      <c r="P119" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q119" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="R119" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S119" s="74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F120" s="50"/>
       <c r="G120" s="49"/>
       <c r="H120" s="51"/>
@@ -6395,18 +6806,18 @@
       <c r="L120" s="49"/>
       <c r="M120" s="49"/>
       <c r="N120" s="52"/>
-      <c r="O120" s="63"/>
+      <c r="O120" s="66"/>
       <c r="P120" s="54" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="Q120" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R120" s="54" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="S120" s="55" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6447,93 +6858,93 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="44" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:6" ht="17.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6568,88 +6979,88 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="41" customWidth="1"/>
-    <col min="4" max="7" width="10.42578125" style="41" customWidth="1"/>
-    <col min="8" max="9" width="17.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="41"/>
+    <col min="4" max="7" width="10.375" style="41" customWidth="1"/>
+    <col min="8" max="9" width="17.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="44" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
-        <v>262</v>
-      </c>
       <c r="B3" s="46" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -6661,17 +7072,17 @@
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
       <c r="B4" s="46" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
@@ -6682,18 +7093,18 @@
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="71"/>
       <c r="B5" s="46" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -6703,19 +7114,19 @@
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71"/>
       <c r="B6" s="46" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -6724,20 +7135,20 @@
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
     </row>
-    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
       <c r="B7" s="46" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -6745,13 +7156,13 @@
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
     </row>
-    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
       <c r="B8" s="46" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -6759,20 +7170,20 @@
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
     </row>
-    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="68"/>
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
       <c r="B9" s="46" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -6781,19 +7192,19 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
     </row>
-    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="68"/>
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
       <c r="B10" s="46" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -6803,18 +7214,18 @@
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
     </row>
-    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
       <c r="B11" s="46" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -6825,17 +7236,17 @@
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="M11" s="43"/>
     </row>
-    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="69"/>
+    <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
       <c r="B12" s="46" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -6847,7 +7258,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6856,6 +7267,7 @@
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="A3:A12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C3:C5">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Output"</formula>
@@ -6883,12 +7295,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7097,19 +7506,54 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C885771-400D-48C5-A17D-D28D6C07B319}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C885771-400D-48C5-A17D-D28D6C07B319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
+    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
+++ b/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\HkmcVehicleInpAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71FE0B-9B22-4924-A795-CCDF1F67AE96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4620F0D2-3B37-4EFD-9769-64440CC5ED6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="290">
   <si>
     <t>Change Log</t>
   </si>
@@ -141,16 +141,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Cx0_AdasFCASR_Default
-Cx1_AdasFCASR_Off
-Cx2_AdasFCASR_Warning
-Cx3_AdasFCASR_Assist
-Cx4_AdasFCASR_Reserved
-Cx5_AdasFCASR_Reserved
-Cx6_AdasFCASR_Reserved
-Cx7_AdasFCASR_Invalid</t>
-  </si>
-  <si>
     <t>HVIA_MDPS</t>
   </si>
   <si>
@@ -193,228 +183,18 @@
     <t>HSYS_CLU_05_00ms</t>
   </si>
   <si>
-    <t>Cx0_AAsstSR_Default
-Cx1_AAsstSR_OFF
-Cx2_AAsstSR_Late
-Cx3_AAsstSR_Normal
-Cx4_AAsstSR_Early
-Cx5_AAsstSR_Reserved
-Cx6_AAsstSR_Reserved
-Cx7_AAsstSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_Fca1stWSR_Default
-Cx1_Fca1stWSR_On_Late
-Cx2_Fca1stWSR_ON_Normal
-Cx3_Fca1stWSR_ON_Early
-Cx4_Fca1stWSR_Reserved
-Cx5_Fca1stWSR_Reserved
-Cx6_Fca1stWSR_Reserved
-Cx7_Fca1stWSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_HADSR_Default
-Cx1_HADSR_Function_On
-Cx2_HADSR_Function_Off
-Cx3_HADSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_IslwSR_Default
-Cx1_IslwSR_Disable
-Cx2_IslwSR_Enable
-Cx3_IslwSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_StaR1R_Default
-Cx1_StaR1R_Reset
-Cx2_StaR1R_Not_Used
-Cx3_StaR1R_Error_Indicator</t>
-  </si>
-  <si>
     <t>HSYS_CLU_12_00ms</t>
   </si>
   <si>
-    <t>Cx0_AdasUSMRR_Default
-Cx1_AdasUSMRR_Reset
-Cx2_AdasUSMRR_Reserved
-Cx3_AdasUSMRR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCDMSR_Default
-Cx1_AdasSCCDMSR_Comfort
-Cx2_AdasSCCDMSR_Normal
-Cx3_AdasSCCDMSR_Dynamic
-Cx4_AdasSCCDMSR_Reserved
-Cx5_AdasSCCDMSR_Reserved
-Cx6_AdasSCCDMSR_Reserved
-Cx7_AdasSCCDMSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasDAWMSR_Default
-Cx1_AdasDAWMSR_Off
-Cx2_AdasDAWMSR_Reserved
-Cx3_AdasDAWMSR_Normal
-Cx4_AdasDAWMSR_Early
-Cx5_AdasDAWMSR_Reserved
-Cx6_AdasDAWMSR_Reserved
-Cx7_AdasDAWMSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasHDASR_Default
-Cx1_AdasHDASR_Function_Off
-Cx2_AdasHDASR_Function_On
-Cx3_AdasHDASR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasNSCCCSR_Default
-Cx1_AdasNSCCCSR_Disable
-Cx2_AdasNSCCCSR_Enable
-Cx3_AdasNSCCCSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasLFASR_Default
-Cx1_AdasLFASR_Function_Off
-Cx2_AdasLFASR_Function_On
-Cx3_AdasLFASR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasBCASR_Default
-Cx1_AdasBCASR_Off
-Cx2_AdasBCASR_Warning
-Cx3_AdasBCASR_Assist
-Cx4_AdasBCASR_Reserved
-Cx5_AdasBCASR_Reserved
-Cx6_AdasBCASR_Reserved
-Cx7_AdasBCASR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasISLWSR_Default_x000D_
-Cx1_AdasISLWSR_Disable_x000D_
-Cx2_AdasISLWSR_Enable_x000D_
-Cx3_AdasISLWSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasWrngTSR_Default
-Cx1_AdasWrngTSR_Late
-Cx2_AdasWrngTSR_Normal
-Cx3_AdasWrngTSR_Reserved
-Cx4_AdasWrngTSR_Reserved
-Cx5_AdasWrngTSR_Reserved
-Cx6_AdasWrngTSR_Reserved
-Cx7_AdasWrngTSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasLVDASR_Default
-Cx1_AdasLVDASR_Off
-Cx2_AdasLVDASR_On
-Cx3_AdasLVDASR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasNSCCCSR_Default_x000D_
-Cx1_AdasNSCCCSR_Disable_x000D_
-Cx2_AdasNSCCCSR_Enable_x000D_
-Cx3_AdasNSCCCSR_Invalid</t>
-  </si>
-  <si>
     <t>HSYS_CLU_13_00ms</t>
   </si>
   <si>
-    <t>Cx0_AdasLkaMSR_Default
-Cx1_AdasLkaMSR_LDW_mode
-Cx2_AdasLkaMSR_LKA_mode
-Cx3_AdasLkaMSR_ACTIVE_LKA
-Cx4_AdasLkaMSR_LDW_ON
-Cx5_AdasLkaMSR_LDW_OFF
-Cx6_AdasLkaMSR_LDW/LKA_OFF
-Cx7_AdasLkaMSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasFCAJSR_Default
-Cx1_AdasFCAJSR_Off
-Cx2_AdasFCAJSR_On
-Cx3_AdasFCAJSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasHbaSR_Default
-Cx1_AdasHbaSR_Off
-Cx2_AdasHbaSR_On
-Cx3_AdasHbaSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCMLSR_Default
-Cx1_AdasSCCMLSR_Off
-Cx2_AdasSCCMLSR_On
-Cx3_AdasSCCMLSR_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_AdasSCCMLRR_Default_x000D_
-Cx1_AdasSCCMLRR_Reset_x000D_
-Cx2_AdasSCCMLRR_Reserved_x000D_
-Cx3_AdasSCCMLRR_Invalid</t>
-  </si>
-  <si>
     <t>HSYS_MDPS_01_10ms</t>
   </si>
   <si>
-    <t>Cx0_LkaTAS_Deactivated
-Cx1_LkaTAS_Activated
-Cx2_LkaTAS_Not_Used
-Cx3_LkaTAS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_LkaTUS_Available
-Cx1_LkaTUS_Unavailable
-Cx2_LkaTUS_Not_used
-Cx3_LkaTUS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_LkaTFS_No_Fault
-Cx1_LkaTFS_Faulty
-Cx2_LkaTFS_Not_used
-Cx3_LkaTFS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_LkaFS_Not_Fail_State
-Cx1_LkaFS_Fail_State
-Cx2_LkaFS_Not_used
-Cx3_LkaFS_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_FlxSS_Standard_Mode
-Cx1_FlxSS_Sport_Mode
-Cx2_FlxSS_Comfort_Mode
-Cx3_FlxSS_Reserved
-Cx4_FlxSS_Reserved
-Cx5_FlxSS_Reserved
-Cx6_FlxSS_Not_Used
-Cx7_FlxSS_Invalid</t>
-  </si>
-  <si>
-    <t>Cx0_CurrMV_Standard_Mode
-Cx1_CurrMV_Sport_Mode
-Cx2_CurrMV_Comfort_Mode
-Cx3_CurrMV_Reserved
-Cx4_CurrMV_Reserved
-Cx5_CurrMV_Reserved
-Cx6_CurrMV_Not_Used
-Cx7_CurrMV_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_OutTV_Not_Used ; Cx1_OutTV_Error_Indicator</t>
-  </si>
-  <si>
-    <t>Cx0_StrTSV_Not_Used ; Cx1_StrTSV_Error_Indicator</t>
-  </si>
-  <si>
     <t>HSYS_BCM_08_200ms</t>
   </si>
   <si>
-    <t>Cx0_HbaCMT_HighControlMode_BCM
-Cx1_HbaCMT_HighControlMode_HBA
-Cx2_HbaCMT_Not_Used
-Cx3_HbaCMT_Error_Indicator</t>
-  </si>
-  <si>
     <t>HkmcVehicleInput SWC/VIPCDD SWC</t>
   </si>
   <si>
@@ -445,14 +225,6 @@
   </si>
   <si>
     <t>TopLevelCompostion</t>
-  </si>
-  <si>
-    <t>Cx0_Typ_C-MDPS
-Cx1_Typ_R-MDPS_Pinion
-Cx2_Typ_R-MDPS_Belt
-Cx6_Typ_Not_Used
-Cx7_Typ_Error_Indicator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Cx0_SpdUT_kmperh
@@ -1491,6 +1263,268 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BitLength:4, Factor : 1, BCM_AliveCounter8Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitLength:8, Factor : 1, BCM_CyclicRedundancyCheck8Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AAsstSR_Default
+Cx1_AAsstSR_OFF
+Cx2_AAsstSR_Late
+Cx3_AAsstSR_Normal
+Cx4_AAsstSR_Early
+Cx5_AAsstSR_Reserved
+Cx6_AAsstSR_Reserved
+Cx7_AAsstSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_USMFca1stWSR_Default
+Cx1_USMFca1stWSR_On_Late
+Cx2_USMFca1stWSR_ON_Normal
+Cx3_USMFca1stWSR_ON_Early
+Cx4_USMFca1stWSR_Reserved
+Cx5_USMFca1stWSR_Reserved
+Cx6_USMFca1stWSR_Reserved
+Cx7_USMFca1stWSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HADSR_Default
+Cx1_HADSR_Function_On
+Cx2_HADSR_Function_Off
+Cx3_HADSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_IslwSR_Default
+Cx1_IslwSR_Disable
+Cx2_IslwSR_Enable
+Cx3_IslwSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_StaR1R_Default
+Cx1_StaR1R_Reset
+Cx2_StaR1R_Not_Used
+Cx3_StaR1R_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasUSMRR_Default
+Cx1_AdasUSMRR_Reset
+Cx2_AdasUSMRR_Reserved
+Cx3_AdasUSMRR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasFCASR_Default
+Cx1_AdasFCASR_Off
+Cx2_AdasFCASR_Warning
+Cx3_AdasFCASR_Assist
+Cx4_AdasFCASR_Reserved
+Cx5_AdasFCASR_Reserved
+Cx6_AdasFCASR_Reserved
+Cx7_AdasFCASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCDMSR_Default
+Cx1_AdasSCCDMSR_Comfort
+Cx2_AdasSCCDMSR_Normal
+Cx3_AdasSCCDMSR_Dynamic
+Cx4_AdasSCCDMSR_Reserved
+Cx5_AdasSCCDMSR_Reserved
+Cx6_AdasSCCDMSR_Reserved
+Cx7_AdasSCCDMSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasDAWMSR_Default
+Cx1_AdasDAWMSR_Off
+Cx2_AdasDAWMSR_Reserved
+Cx3_AdasDAWMSR_Normal
+Cx4_AdasDAWMSR_Early
+Cx5_AdasDAWMSR_Reserved
+Cx6_AdasDAWMSR_Reserved
+Cx7_AdasDAWMSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasHDASR_Default
+Cx1_AdasHDASR_Function_Off
+Cx2_AdasHDASR_Function_On
+Cx3_AdasHDASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasNSCCCSR_Default
+Cx1_AdasNSCCCSR_Disable
+Cx2_AdasNSCCCSR_Enable
+Cx3_AdasNSCCCSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasLFASR_Default
+Cx1_AdasLFASR_Function_Off
+Cx2_AdasLFASR_Function_On
+Cx3_AdasLFASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasBCASR_Default
+Cx1_AdasBCASR_Off
+Cx2_AdasBCASR_Warning
+Cx3_AdasBCASR_Assist
+Cx4_AdasBCASR_Reserved
+Cx5_AdasBCASR_Reserved
+Cx6_AdasBCASR_Reserved
+Cx7_AdasBCASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasISLWSR_Default
+Cx1_AdasISLWSR_Disable
+Cx2_AdasISLWSR_Enable
+Cx3_AdasISLWSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasWrngTSR_Default
+Cx1_AdasWrngTSR_Late
+Cx2_AdasWrngTSR_Normal
+Cx3_AdasWrngTSR_Reserved
+Cx4_AdasWrngTSR_Reserved
+Cx5_AdasWrngTSR_Reserved
+Cx6_AdasWrngTSR_Reserved
+Cx7_AdasWrngTSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasLVDASR_Default
+Cx1_AdasLVDASR_Off
+Cx2_AdasLVDASR_On
+Cx3_AdasLVDASR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasLkaMSR_Default
+Cx1_AdasLkaMSR_LDW_mode
+Cx2_AdasLkaMSR_LKA_mode
+Cx3_AdasLkaMSR_ACTIVE_LKA
+Cx4_AdasLkaMSR_LDW_ON
+Cx5_AdasLkaMSR_LDW_OFF
+Cx6_AdasLkaMSR_LDW_LKA_OFF
+Cx7_AdasLkaMSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasFCAJSR_Default
+Cx1_AdasFCAJSR_Off
+Cx2_AdasFCAJSR_On
+Cx3_AdasFCAJSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasHbaSR_Default
+Cx1_AdasHbaSR_Off
+Cx2_AdasHbaSR_On
+Cx3_AdasHbaSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCMLSR_Default
+Cx1_AdasSCCMLSR_Off
+Cx2_AdasSCCMLSR_On
+Cx3_AdasSCCMLSR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_AdasSCCMLRR_Default
+Cx1_AdasSCCMLRR_Reset
+Cx2_AdasSCCMLRR_Reserved
+Cx3_AdasSCCMLRR_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_Typ_C_MDPS
+Cx1_Typ_R_MDPS_Pinion
+Cx2_Typ_R_MDPS_Belt
+Cx6_Typ_Not_Used
+Cx7_Typ_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaTAS_Deactivated
+Cx1_LkaTAS_Activated
+Cx2_LkaTAS_Not_Used
+Cx3_LkaTAS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaTUS_Available
+Cx1_LkaTUS_Unavailable
+Cx2_LkaTUS_Not_used
+Cx3_LkaTUS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaTFS_No_Fault
+Cx1_LkaTFS_Faulty
+Cx2_LkaTFS_Not_used
+Cx3_LkaTFS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_FlxSS_Standard_Mode
+Cx1_FlxSS_Sport_Mode
+Cx2_FlxSS_Comfort_Mode
+Cx3_FlxSS_Reserved
+Cx4_FlxSS_Reserved
+Cx5_FlxSS_Reserved
+Cx6_FlxSS_Not_Used
+Cx7_FlxSS_Invalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_CurrMV_Standard_Mode
+Cx1_CurrMV_Sport_Mode
+Cx2_CurrMV_Comfort_Mode
+Cx3_CurrMV_Reserved
+Cx4_CurrMV_Reserved
+Cx5_CurrMV_Reserved
+Cx6_CurrMV_Not_Used
+Cx7_CurrMV_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_OutTV_Not_Used
+Cx1_OutTV_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_StrTSV_Not_Used
+Cx1_StrTSV_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_HbaCMT_HighControlMode_BCM
+Cx1_HbaCMT_HighControlMode_HBA
+Cx2_HbaCMT_Not_Used
+Cx3_HbaCMT_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cx0_LkaFS_Not_Fail_State
+Cx1_LkaFS_Fail_State
+Cx2_LkaFS_Not_used
+Cx3_LkaFS_Error_Indicator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Cx0_PMS_Reserved
 Cx1_PMS_Steering_still_in_initialization_phase
 Cx2_PMS_Steering_ready_waits_for_PA_command
@@ -1499,16 +1533,8 @@
 Cx5_PMS_Steering_requested_to_go_to_final_activation_step
 Cx6_PMS_Steering_went_to_error_internally
 Cx7_PMS_Steering_aborted_the_automatic_function
-0xE_PMS_Not_Used
-0xF_PMS_Error_Indicator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitLength:4, Factor : 1, BCM_AliveCounter8Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BitLength:8, Factor : 1, BCM_CyclicRedundancyCheck8Value</t>
+CxE_PMS_Not_Used
+CxF_PMS_Error_Indicator</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4327,10 +4353,10 @@
   <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S116" sqref="S116"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4429,10 +4455,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>18</v>
@@ -4441,7 +4467,7 @@
         <v>19</v>
       </c>
       <c r="S2" s="53" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
@@ -4471,7 +4497,7 @@
         <v>17</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>18</v>
@@ -4480,7 +4506,7 @@
         <v>19</v>
       </c>
       <c r="S3" s="53" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
@@ -4510,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>18</v>
@@ -4519,7 +4545,7 @@
         <v>19</v>
       </c>
       <c r="S4" s="53" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
@@ -4546,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>18</v>
@@ -4558,7 +4584,7 @@
         <v>19</v>
       </c>
       <c r="S5" s="53" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -4588,7 +4614,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="40" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>18</v>
@@ -4597,7 +4623,7 @@
         <v>19</v>
       </c>
       <c r="S6" s="53" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -4624,10 +4650,10 @@
         <v>6</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>18</v>
@@ -4636,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="S7" s="53" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
@@ -4663,10 +4689,10 @@
         <v>7</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>18</v>
@@ -4675,7 +4701,7 @@
         <v>19</v>
       </c>
       <c r="S8" s="53" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
@@ -4700,7 +4726,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="52"/>
       <c r="O9" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
@@ -4729,19 +4755,19 @@
       <c r="M10" s="49"/>
       <c r="N10" s="52"/>
       <c r="O10" s="64" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S10" s="55" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
@@ -4760,16 +4786,16 @@
       <c r="N11" s="52"/>
       <c r="O11" s="65"/>
       <c r="P11" s="54" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4779,16 +4805,16 @@
       <c r="N12" s="52"/>
       <c r="O12" s="65"/>
       <c r="P12" s="54" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R12" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" s="55" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4798,13 +4824,13 @@
       <c r="N13" s="52"/>
       <c r="O13" s="65"/>
       <c r="P13" s="54" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R13" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="55"/>
     </row>
@@ -4815,16 +4841,16 @@
       <c r="N14" s="52"/>
       <c r="O14" s="65"/>
       <c r="P14" s="73" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R14" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="75" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4834,13 +4860,13 @@
       <c r="N15" s="52"/>
       <c r="O15" s="65"/>
       <c r="P15" s="54" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="55"/>
     </row>
@@ -4851,16 +4877,16 @@
       <c r="N16" s="52"/>
       <c r="O16" s="65"/>
       <c r="P16" s="54" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R16" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" s="55" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4870,16 +4896,16 @@
       <c r="N17" s="52"/>
       <c r="O17" s="65"/>
       <c r="P17" s="54" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R17" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="55" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4889,16 +4915,16 @@
       <c r="N18" s="52"/>
       <c r="O18" s="65"/>
       <c r="P18" s="54" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R18" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" s="55" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="6:19" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4908,13 +4934,13 @@
       <c r="N19" s="52"/>
       <c r="O19" s="66"/>
       <c r="P19" s="54" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R19" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="55"/>
     </row>
@@ -4929,19 +4955,19 @@
       <c r="M20" s="49"/>
       <c r="N20" s="52"/>
       <c r="O20" s="64" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P20" s="54" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R20" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="55" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4950,16 +4976,16 @@
       <c r="N21" s="52"/>
       <c r="O21" s="65"/>
       <c r="P21" s="54" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R21" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" s="55" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4968,16 +4994,16 @@
       <c r="N22" s="52"/>
       <c r="O22" s="65"/>
       <c r="P22" s="54" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R22" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22" s="55" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,16 +5018,16 @@
       <c r="N23" s="52"/>
       <c r="O23" s="65"/>
       <c r="P23" s="54" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R23" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" s="55" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5010,16 +5036,16 @@
       <c r="N24" s="52"/>
       <c r="O24" s="65"/>
       <c r="P24" s="54" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R24" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24" s="55" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5028,16 +5054,16 @@
       <c r="N25" s="52"/>
       <c r="O25" s="65"/>
       <c r="P25" s="54" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R25" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25" s="55" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5052,16 +5078,16 @@
       <c r="N26" s="52"/>
       <c r="O26" s="65"/>
       <c r="P26" s="54" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R26" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S26" s="55" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5070,16 +5096,16 @@
       <c r="N27" s="52"/>
       <c r="O27" s="65"/>
       <c r="P27" s="54" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R27" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27" s="55" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5088,16 +5114,16 @@
       <c r="N28" s="52"/>
       <c r="O28" s="65"/>
       <c r="P28" s="54" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R28" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" s="55" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5106,16 +5132,16 @@
       <c r="N29" s="52"/>
       <c r="O29" s="66"/>
       <c r="P29" s="54" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R29" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29" s="55" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5129,19 +5155,19 @@
       <c r="M30" s="49"/>
       <c r="N30" s="52"/>
       <c r="O30" s="64" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="P30" s="54" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R30" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S30" s="55" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5150,16 +5176,16 @@
       <c r="N31" s="52"/>
       <c r="O31" s="65"/>
       <c r="P31" s="54" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R31" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S31" s="55" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5168,16 +5194,16 @@
       <c r="N32" s="52"/>
       <c r="O32" s="65"/>
       <c r="P32" s="54" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R32" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S32" s="55" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5186,16 +5212,16 @@
       <c r="N33" s="52"/>
       <c r="O33" s="65"/>
       <c r="P33" s="54" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R33" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S33" s="55" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5204,16 +5230,16 @@
       <c r="N34" s="52"/>
       <c r="O34" s="65"/>
       <c r="P34" s="54" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R34" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S34" s="55" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5222,16 +5248,16 @@
       <c r="N35" s="52"/>
       <c r="O35" s="65"/>
       <c r="P35" s="54" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R35" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S35" s="55" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5240,16 +5266,16 @@
       <c r="N36" s="52"/>
       <c r="O36" s="65"/>
       <c r="P36" s="54" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R36" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S36" s="55" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5258,13 +5284,13 @@
       <c r="N37" s="52"/>
       <c r="O37" s="65"/>
       <c r="P37" s="54" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R37" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S37" s="55"/>
     </row>
@@ -5274,16 +5300,16 @@
       <c r="N38" s="52"/>
       <c r="O38" s="65"/>
       <c r="P38" s="54" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="Q38" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R38" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S38" s="55" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5292,13 +5318,13 @@
       <c r="N39" s="52"/>
       <c r="O39" s="65"/>
       <c r="P39" s="54" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R39" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S39" s="56"/>
     </row>
@@ -5308,13 +5334,13 @@
       <c r="N40" s="52"/>
       <c r="O40" s="66"/>
       <c r="P40" s="54" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R40" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S40" s="56"/>
     </row>
@@ -5323,19 +5349,19 @@
       <c r="H41" s="51"/>
       <c r="N41" s="52"/>
       <c r="O41" s="64" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="P41" s="32" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R41" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S41" s="55" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5344,16 +5370,16 @@
       <c r="N42" s="52"/>
       <c r="O42" s="65"/>
       <c r="P42" s="32" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q42" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R42" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S42" s="55" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5362,16 +5388,16 @@
       <c r="N43" s="52"/>
       <c r="O43" s="65"/>
       <c r="P43" s="32" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="Q43" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R43" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S43" s="55" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5380,16 +5406,16 @@
       <c r="N44" s="52"/>
       <c r="O44" s="65"/>
       <c r="P44" s="32" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="Q44" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R44" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S44" s="55" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5398,16 +5424,16 @@
       <c r="N45" s="52"/>
       <c r="O45" s="65"/>
       <c r="P45" s="32" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="Q45" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R45" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S45" s="55" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5416,16 +5442,16 @@
       <c r="N46" s="52"/>
       <c r="O46" s="65"/>
       <c r="P46" s="32" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R46" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S46" s="55" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5434,16 +5460,16 @@
       <c r="N47" s="52"/>
       <c r="O47" s="65"/>
       <c r="P47" s="32" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q47" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R47" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S47" s="55" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,16 +5478,16 @@
       <c r="N48" s="52"/>
       <c r="O48" s="65"/>
       <c r="P48" s="32" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="Q48" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R48" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S48" s="55" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,16 +5496,16 @@
       <c r="N49" s="52"/>
       <c r="O49" s="65"/>
       <c r="P49" s="32" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="Q49" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R49" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S49" s="55" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5488,16 +5514,16 @@
       <c r="N50" s="52"/>
       <c r="O50" s="65"/>
       <c r="P50" s="32" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="Q50" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R50" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S50" s="55" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5506,16 +5532,16 @@
       <c r="N51" s="52"/>
       <c r="O51" s="65"/>
       <c r="P51" s="54" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="Q51" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R51" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S51" s="55" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5524,16 +5550,16 @@
       <c r="N52" s="52"/>
       <c r="O52" s="65"/>
       <c r="P52" s="32" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="Q52" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R52" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S52" s="55" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5542,16 +5568,16 @@
       <c r="N53" s="52"/>
       <c r="O53" s="65"/>
       <c r="P53" s="58" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q53" s="59" t="s">
         <v>18</v>
       </c>
       <c r="R53" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5560,16 +5586,16 @@
       <c r="N54" s="52"/>
       <c r="O54" s="65"/>
       <c r="P54" s="32" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="Q54" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R54" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S54" s="55" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5578,16 +5604,16 @@
       <c r="N55" s="52"/>
       <c r="O55" s="65"/>
       <c r="P55" s="32" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="Q55" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R55" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S55" s="55" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5596,16 +5622,16 @@
       <c r="N56" s="52"/>
       <c r="O56" s="65"/>
       <c r="P56" s="32" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="Q56" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R56" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S56" s="55" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5614,16 +5640,16 @@
       <c r="N57" s="52"/>
       <c r="O57" s="65"/>
       <c r="P57" s="32" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="Q57" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R57" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S57" s="55" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5632,16 +5658,16 @@
       <c r="N58" s="52"/>
       <c r="O58" s="65"/>
       <c r="P58" s="32" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="Q58" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R58" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S58" s="55" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5650,16 +5676,16 @@
       <c r="N59" s="52"/>
       <c r="O59" s="65"/>
       <c r="P59" s="32" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="Q59" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R59" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S59" s="55" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5668,16 +5694,16 @@
       <c r="N60" s="52"/>
       <c r="O60" s="65"/>
       <c r="P60" s="32" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="Q60" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R60" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S60" s="55" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5686,16 +5712,16 @@
       <c r="N61" s="52"/>
       <c r="O61" s="65"/>
       <c r="P61" s="32" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="Q61" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R61" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S61" s="55" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5704,16 +5730,16 @@
       <c r="N62" s="52"/>
       <c r="O62" s="65"/>
       <c r="P62" s="32" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="Q62" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R62" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S62" s="55" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5722,16 +5748,16 @@
       <c r="N63" s="52"/>
       <c r="O63" s="65"/>
       <c r="P63" s="32" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="Q63" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R63" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S63" s="55" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5740,16 +5766,16 @@
       <c r="N64" s="52"/>
       <c r="O64" s="65"/>
       <c r="P64" s="32" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="Q64" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R64" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5758,16 +5784,16 @@
       <c r="N65" s="52"/>
       <c r="O65" s="65"/>
       <c r="P65" s="32" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="Q65" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R65" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S65" s="55" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5776,16 +5802,16 @@
       <c r="N66" s="52"/>
       <c r="O66" s="65"/>
       <c r="P66" s="54" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="Q66" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R66" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5794,16 +5820,16 @@
       <c r="N67" s="52"/>
       <c r="O67" s="65"/>
       <c r="P67" s="32" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="Q67" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R67" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S67" s="55" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5812,16 +5838,16 @@
       <c r="N68" s="52"/>
       <c r="O68" s="65"/>
       <c r="P68" s="32" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="Q68" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R68" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S68" s="55" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5830,16 +5856,16 @@
       <c r="N69" s="52"/>
       <c r="O69" s="65"/>
       <c r="P69" s="32" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="Q69" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R69" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S69" s="55" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5854,16 +5880,16 @@
       <c r="N70" s="52"/>
       <c r="O70" s="66"/>
       <c r="P70" s="58" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="Q70" s="59" t="s">
         <v>18</v>
       </c>
       <c r="R70" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S70" s="60" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5877,7 +5903,7 @@
       <c r="M71" s="49"/>
       <c r="N71" s="52"/>
       <c r="O71" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P71" s="33"/>
       <c r="Q71" s="29"/>
@@ -5895,19 +5921,19 @@
       <c r="M72" s="49"/>
       <c r="N72" s="52"/>
       <c r="O72" s="64" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="P72" s="73" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="Q72" s="73" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="R72" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S72" s="74" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5916,16 +5942,16 @@
       <c r="N73" s="52"/>
       <c r="O73" s="65"/>
       <c r="P73" s="73" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="Q73" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R73" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S73" s="74" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5934,16 +5960,16 @@
       <c r="N74" s="52"/>
       <c r="O74" s="65"/>
       <c r="P74" s="54" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="Q74" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R74" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S74" s="55" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5952,16 +5978,16 @@
       <c r="N75" s="52"/>
       <c r="O75" s="65"/>
       <c r="P75" s="54" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="Q75" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R75" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S75" s="55" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5970,16 +5996,16 @@
       <c r="N76" s="52"/>
       <c r="O76" s="65"/>
       <c r="P76" s="54" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="Q76" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R76" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S76" s="55" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5988,16 +6014,16 @@
       <c r="N77" s="52"/>
       <c r="O77" s="65"/>
       <c r="P77" s="54" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="Q77" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R77" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S77" s="55" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6006,16 +6032,16 @@
       <c r="N78" s="52"/>
       <c r="O78" s="66"/>
       <c r="P78" s="73" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="Q78" s="73" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="R78" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S78" s="76" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6029,19 +6055,19 @@
       <c r="M79" s="49"/>
       <c r="N79" s="52"/>
       <c r="O79" s="64" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="P79" s="54" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="Q79" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R79" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S79" s="55" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6050,16 +6076,16 @@
       <c r="N80" s="52"/>
       <c r="O80" s="65"/>
       <c r="P80" s="54" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="Q80" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R80" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="S80" s="55" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="S80" s="75" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6068,16 +6094,16 @@
       <c r="N81" s="52"/>
       <c r="O81" s="65"/>
       <c r="P81" s="54" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="Q81" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R81" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S81" s="55" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6086,16 +6112,16 @@
       <c r="N82" s="52"/>
       <c r="O82" s="65"/>
       <c r="P82" s="54" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="Q82" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R82" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S82" s="55" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6104,16 +6130,16 @@
       <c r="N83" s="52"/>
       <c r="O83" s="66"/>
       <c r="P83" s="54" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="Q83" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R83" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S83" s="55" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6127,19 +6153,19 @@
       <c r="M84" s="49"/>
       <c r="N84" s="52"/>
       <c r="O84" s="64" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="P84" s="73" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="Q84" s="73" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="R84" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S84" s="76" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6148,16 +6174,16 @@
       <c r="N85" s="52"/>
       <c r="O85" s="65"/>
       <c r="P85" s="73" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="Q85" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R85" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S85" s="75" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6166,16 +6192,16 @@
       <c r="N86" s="52"/>
       <c r="O86" s="65"/>
       <c r="P86" s="54" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="Q86" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R86" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S86" s="55" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6184,16 +6210,16 @@
       <c r="N87" s="52"/>
       <c r="O87" s="65"/>
       <c r="P87" s="54" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="Q87" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R87" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S87" s="55" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6202,16 +6228,16 @@
       <c r="N88" s="52"/>
       <c r="O88" s="65"/>
       <c r="P88" s="54" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="Q88" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R88" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S88" s="55" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6220,16 +6246,16 @@
       <c r="N89" s="52"/>
       <c r="O89" s="65"/>
       <c r="P89" s="54" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="Q89" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R89" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S89" s="55" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6238,16 +6264,16 @@
       <c r="N90" s="52"/>
       <c r="O90" s="65"/>
       <c r="P90" s="54" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="Q90" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R90" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S90" s="55" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6256,16 +6282,16 @@
       <c r="N91" s="52"/>
       <c r="O91" s="65"/>
       <c r="P91" s="54" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q91" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R91" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S91" s="55" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6274,16 +6300,16 @@
       <c r="N92" s="52"/>
       <c r="O92" s="65"/>
       <c r="P92" s="54" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="Q92" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R92" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S92" s="55" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6292,16 +6318,16 @@
       <c r="N93" s="52"/>
       <c r="O93" s="65"/>
       <c r="P93" s="54" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="Q93" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R93" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S93" s="55" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6310,16 +6336,16 @@
       <c r="N94" s="52"/>
       <c r="O94" s="65"/>
       <c r="P94" s="54" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="Q94" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R94" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S94" s="55" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6328,16 +6354,16 @@
       <c r="N95" s="52"/>
       <c r="O95" s="65"/>
       <c r="P95" s="54" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="Q95" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R95" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S95" s="55" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6346,16 +6372,16 @@
       <c r="N96" s="52"/>
       <c r="O96" s="65"/>
       <c r="P96" s="54" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="Q96" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R96" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S96" s="55" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6364,16 +6390,16 @@
       <c r="N97" s="52"/>
       <c r="O97" s="66"/>
       <c r="P97" s="54" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="Q97" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R97" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S97" s="55" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6387,19 +6413,19 @@
       <c r="M98" s="49"/>
       <c r="N98" s="52"/>
       <c r="O98" s="64" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="P98" s="73" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="Q98" s="73" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="R98" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S98" s="76" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6408,16 +6434,16 @@
       <c r="N99" s="52"/>
       <c r="O99" s="65"/>
       <c r="P99" s="73" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="Q99" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R99" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S99" s="76" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6426,16 +6452,16 @@
       <c r="N100" s="52"/>
       <c r="O100" s="65"/>
       <c r="P100" s="54" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="Q100" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R100" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="S100" s="55" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="S100" s="75" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6444,16 +6470,16 @@
       <c r="N101" s="52"/>
       <c r="O101" s="65"/>
       <c r="P101" s="54" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="Q101" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R101" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S101" s="55" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6462,16 +6488,16 @@
       <c r="N102" s="52"/>
       <c r="O102" s="65"/>
       <c r="P102" s="54" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="Q102" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R102" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S102" s="55" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6480,16 +6506,16 @@
       <c r="N103" s="52"/>
       <c r="O103" s="65"/>
       <c r="P103" s="54" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="Q103" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R103" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S103" s="55" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6498,16 +6524,16 @@
       <c r="N104" s="52"/>
       <c r="O104" s="66"/>
       <c r="P104" s="54" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="Q104" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R104" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S104" s="55" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6521,19 +6547,19 @@
       <c r="M105" s="49"/>
       <c r="N105" s="52"/>
       <c r="O105" s="64" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="P105" s="73" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="Q105" s="73" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="R105" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S105" s="76" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6542,16 +6568,16 @@
       <c r="N106" s="52"/>
       <c r="O106" s="65"/>
       <c r="P106" s="73" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="Q106" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R106" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S106" s="76" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6560,16 +6586,16 @@
       <c r="N107" s="52"/>
       <c r="O107" s="65"/>
       <c r="P107" s="54" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="Q107" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R107" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S107" s="55" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6578,16 +6604,16 @@
       <c r="N108" s="52"/>
       <c r="O108" s="65"/>
       <c r="P108" s="73" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="Q108" s="73" t="s">
         <v>18</v>
       </c>
       <c r="R108" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S108" s="75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6596,16 +6622,16 @@
       <c r="N109" s="52"/>
       <c r="O109" s="65"/>
       <c r="P109" s="54" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="Q109" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R109" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S109" s="55" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6614,16 +6640,16 @@
       <c r="N110" s="52"/>
       <c r="O110" s="65"/>
       <c r="P110" s="54" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="Q110" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R110" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S110" s="55" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6632,16 +6658,16 @@
       <c r="N111" s="52"/>
       <c r="O111" s="65"/>
       <c r="P111" s="54" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="Q111" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R111" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S111" s="55" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6650,16 +6676,16 @@
       <c r="N112" s="52"/>
       <c r="O112" s="65"/>
       <c r="P112" s="54" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="Q112" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R112" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S112" s="55" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6668,16 +6694,16 @@
       <c r="N113" s="52"/>
       <c r="O113" s="65"/>
       <c r="P113" s="54" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="Q113" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R113" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S113" s="55" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6686,16 +6712,16 @@
       <c r="N114" s="52"/>
       <c r="O114" s="65"/>
       <c r="P114" s="54" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="Q114" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R114" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S114" s="55" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6704,16 +6730,16 @@
       <c r="N115" s="52"/>
       <c r="O115" s="65"/>
       <c r="P115" s="54" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="Q115" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R115" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S115" s="55" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6722,16 +6748,16 @@
       <c r="N116" s="52"/>
       <c r="O116" s="65"/>
       <c r="P116" s="54" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="Q116" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R116" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S116" s="55" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6740,16 +6766,16 @@
       <c r="N117" s="52"/>
       <c r="O117" s="66"/>
       <c r="P117" s="54" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="Q117" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R117" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S117" s="55" t="s">
-        <v>66</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6763,19 +6789,19 @@
       <c r="M118" s="49"/>
       <c r="N118" s="52"/>
       <c r="O118" s="64" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="P118" s="73" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="Q118" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R118" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S118" s="74" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="6:19" s="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6784,16 +6810,16 @@
       <c r="N119" s="52"/>
       <c r="O119" s="65"/>
       <c r="P119" s="73" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="Q119" s="73" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R119" s="73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S119" s="74" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="6:19" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6808,16 +6834,16 @@
       <c r="N120" s="52"/>
       <c r="O120" s="66"/>
       <c r="P120" s="54" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Q120" s="54" t="s">
         <v>18</v>
       </c>
       <c r="R120" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S120" s="55" t="s">
-        <v>68</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6873,11 +6899,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="68" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -6887,21 +6913,21 @@
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="44" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>17</v>
@@ -6910,33 +6936,33 @@
         <v>19</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>19</v>
@@ -6944,7 +6970,7 @@
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6995,11 +7021,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="68" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
@@ -7016,51 +7042,51 @@
       <c r="A2" s="67"/>
       <c r="B2" s="67"/>
       <c r="C2" s="44" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>40</v>
-      </c>
       <c r="K2" s="44" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -7075,14 +7101,14 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
@@ -7096,15 +7122,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -7117,16 +7143,16 @@
     <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="71"/>
       <c r="B6" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -7138,17 +7164,17 @@
     <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="71"/>
       <c r="B7" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -7159,10 +7185,10 @@
     <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="71"/>
       <c r="B8" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -7170,7 +7196,7 @@
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
@@ -7180,10 +7206,10 @@
     <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="B9" s="46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -7192,7 +7218,7 @@
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
@@ -7201,10 +7227,10 @@
     <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="46" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -7214,7 +7240,7 @@
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
       <c r="K10" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
@@ -7222,10 +7248,10 @@
     <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="46" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -7236,17 +7262,17 @@
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
       <c r="L11" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="46" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -7258,7 +7284,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
       <c r="M12" s="43" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7517,16 +7543,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
+++ b/R2/02_SignalMatrix/HkmcVehicleInpAdap/HkmcVehicleInputAdap_SignalMatrix_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_2020\90_GitHub\0410\Veoneer\R2\02_SignalMatrix\HkmcVehicleInpAdap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4620F0D2-3B37-4EFD-9769-64440CC5ED6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E2A34-D8F2-4B12-8364-C91028D18F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{51B81819-EC55-40BC-AC3D-96F7FA05F5FF}"/>
   </bookViews>
@@ -2240,6 +2240,16 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2275,16 +2285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2763,13 +2763,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4353,10 +4353,10 @@
   <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="V99" sqref="V99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4754,7 +4754,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="49"/>
       <c r="N10" s="52"/>
-      <c r="O10" s="64" t="s">
+      <c r="O10" s="68" t="s">
         <v>188</v>
       </c>
       <c r="P10" s="54" t="s">
@@ -4784,7 +4784,7 @@
       <c r="H11" s="48"/>
       <c r="M11" s="49"/>
       <c r="N11" s="52"/>
-      <c r="O11" s="65"/>
+      <c r="O11" s="69"/>
       <c r="P11" s="54" t="s">
         <v>52</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="H12" s="48"/>
       <c r="M12" s="49"/>
       <c r="N12" s="52"/>
-      <c r="O12" s="65"/>
+      <c r="O12" s="69"/>
       <c r="P12" s="54" t="s">
         <v>53</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="H13" s="48"/>
       <c r="M13" s="49"/>
       <c r="N13" s="52"/>
-      <c r="O13" s="65"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="54" t="s">
         <v>54</v>
       </c>
@@ -4839,17 +4839,17 @@
       <c r="H14" s="48"/>
       <c r="M14" s="49"/>
       <c r="N14" s="52"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="73" t="s">
+      <c r="O14" s="69"/>
+      <c r="P14" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="73" t="s">
+      <c r="Q14" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R14" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="75" t="s">
+      <c r="R14" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="63" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="H15" s="48"/>
       <c r="M15" s="49"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="65"/>
+      <c r="O15" s="69"/>
       <c r="P15" s="54" t="s">
         <v>56</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="H16" s="48"/>
       <c r="M16" s="49"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="65"/>
+      <c r="O16" s="69"/>
       <c r="P16" s="54" t="s">
         <v>57</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="H17" s="48"/>
       <c r="M17" s="49"/>
       <c r="N17" s="52"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="69"/>
       <c r="P17" s="54" t="s">
         <v>58</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="H18" s="48"/>
       <c r="M18" s="49"/>
       <c r="N18" s="52"/>
-      <c r="O18" s="65"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="54" t="s">
         <v>59</v>
       </c>
@@ -4932,7 +4932,7 @@
       <c r="H19" s="48"/>
       <c r="M19" s="49"/>
       <c r="N19" s="52"/>
-      <c r="O19" s="66"/>
+      <c r="O19" s="70"/>
       <c r="P19" s="54" t="s">
         <v>60</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="52"/>
-      <c r="O20" s="64" t="s">
+      <c r="O20" s="68" t="s">
         <v>61</v>
       </c>
       <c r="P20" s="54" t="s">
@@ -4974,7 +4974,7 @@
       <c r="F21" s="50"/>
       <c r="H21" s="51"/>
       <c r="N21" s="52"/>
-      <c r="O21" s="65"/>
+      <c r="O21" s="69"/>
       <c r="P21" s="54" t="s">
         <v>63</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="F22" s="50"/>
       <c r="H22" s="51"/>
       <c r="N22" s="52"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="54" t="s">
         <v>64</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="52"/>
-      <c r="O23" s="65"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="54" t="s">
         <v>65</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="F24" s="50"/>
       <c r="H24" s="51"/>
       <c r="N24" s="52"/>
-      <c r="O24" s="65"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="54" t="s">
         <v>66</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="F25" s="50"/>
       <c r="H25" s="51"/>
       <c r="N25" s="52"/>
-      <c r="O25" s="65"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="54" t="s">
         <v>67</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="52"/>
-      <c r="O26" s="65"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="54" t="s">
         <v>68</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="F27" s="50"/>
       <c r="H27" s="51"/>
       <c r="N27" s="52"/>
-      <c r="O27" s="65"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="54" t="s">
         <v>69</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="F28" s="50"/>
       <c r="H28" s="51"/>
       <c r="N28" s="52"/>
-      <c r="O28" s="65"/>
+      <c r="O28" s="69"/>
       <c r="P28" s="54" t="s">
         <v>70</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="F29" s="50"/>
       <c r="H29" s="51"/>
       <c r="N29" s="52"/>
-      <c r="O29" s="66"/>
+      <c r="O29" s="70"/>
       <c r="P29" s="54" t="s">
         <v>72</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="52"/>
-      <c r="O30" s="64" t="s">
+      <c r="O30" s="68" t="s">
         <v>73</v>
       </c>
       <c r="P30" s="54" t="s">
@@ -5174,7 +5174,7 @@
       <c r="F31" s="50"/>
       <c r="H31" s="51"/>
       <c r="N31" s="52"/>
-      <c r="O31" s="65"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="54" t="s">
         <v>75</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="F32" s="50"/>
       <c r="H32" s="51"/>
       <c r="N32" s="52"/>
-      <c r="O32" s="65"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="54" t="s">
         <v>76</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="F33" s="50"/>
       <c r="H33" s="51"/>
       <c r="N33" s="52"/>
-      <c r="O33" s="65"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="54" t="s">
         <v>77</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="F34" s="50"/>
       <c r="H34" s="51"/>
       <c r="N34" s="52"/>
-      <c r="O34" s="65"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="54" t="s">
         <v>78</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="F35" s="50"/>
       <c r="H35" s="51"/>
       <c r="N35" s="52"/>
-      <c r="O35" s="65"/>
+      <c r="O35" s="69"/>
       <c r="P35" s="54" t="s">
         <v>79</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="F36" s="50"/>
       <c r="H36" s="51"/>
       <c r="N36" s="52"/>
-      <c r="O36" s="65"/>
+      <c r="O36" s="69"/>
       <c r="P36" s="54" t="s">
         <v>80</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="F37" s="50"/>
       <c r="H37" s="51"/>
       <c r="N37" s="52"/>
-      <c r="O37" s="65"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="54" t="s">
         <v>81</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="F38" s="50"/>
       <c r="H38" s="51"/>
       <c r="N38" s="52"/>
-      <c r="O38" s="65"/>
+      <c r="O38" s="69"/>
       <c r="P38" s="54" t="s">
         <v>82</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="F39" s="50"/>
       <c r="H39" s="51"/>
       <c r="N39" s="52"/>
-      <c r="O39" s="65"/>
+      <c r="O39" s="69"/>
       <c r="P39" s="54" t="s">
         <v>83</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="F40" s="50"/>
       <c r="H40" s="51"/>
       <c r="N40" s="52"/>
-      <c r="O40" s="66"/>
+      <c r="O40" s="70"/>
       <c r="P40" s="54" t="s">
         <v>84</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="F41" s="50"/>
       <c r="H41" s="51"/>
       <c r="N41" s="52"/>
-      <c r="O41" s="64" t="s">
+      <c r="O41" s="68" t="s">
         <v>85</v>
       </c>
       <c r="P41" s="32" t="s">
@@ -5368,7 +5368,7 @@
       <c r="F42" s="50"/>
       <c r="H42" s="51"/>
       <c r="N42" s="52"/>
-      <c r="O42" s="65"/>
+      <c r="O42" s="69"/>
       <c r="P42" s="32" t="s">
         <v>87</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="F43" s="50"/>
       <c r="H43" s="51"/>
       <c r="N43" s="52"/>
-      <c r="O43" s="65"/>
+      <c r="O43" s="69"/>
       <c r="P43" s="32" t="s">
         <v>88</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="F44" s="50"/>
       <c r="H44" s="51"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="65"/>
+      <c r="O44" s="69"/>
       <c r="P44" s="32" t="s">
         <v>89</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="F45" s="50"/>
       <c r="H45" s="51"/>
       <c r="N45" s="52"/>
-      <c r="O45" s="65"/>
+      <c r="O45" s="69"/>
       <c r="P45" s="32" t="s">
         <v>90</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="F46" s="50"/>
       <c r="H46" s="51"/>
       <c r="N46" s="52"/>
-      <c r="O46" s="65"/>
+      <c r="O46" s="69"/>
       <c r="P46" s="32" t="s">
         <v>91</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="F47" s="50"/>
       <c r="H47" s="51"/>
       <c r="N47" s="52"/>
-      <c r="O47" s="65"/>
+      <c r="O47" s="69"/>
       <c r="P47" s="32" t="s">
         <v>92</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="F48" s="50"/>
       <c r="H48" s="51"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="65"/>
+      <c r="O48" s="69"/>
       <c r="P48" s="32" t="s">
         <v>93</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="F49" s="50"/>
       <c r="H49" s="51"/>
       <c r="N49" s="52"/>
-      <c r="O49" s="65"/>
+      <c r="O49" s="69"/>
       <c r="P49" s="32" t="s">
         <v>94</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="F50" s="50"/>
       <c r="H50" s="51"/>
       <c r="N50" s="52"/>
-      <c r="O50" s="65"/>
+      <c r="O50" s="69"/>
       <c r="P50" s="32" t="s">
         <v>95</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="F51" s="50"/>
       <c r="H51" s="51"/>
       <c r="N51" s="52"/>
-      <c r="O51" s="65"/>
+      <c r="O51" s="69"/>
       <c r="P51" s="54" t="s">
         <v>96</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="F52" s="50"/>
       <c r="H52" s="51"/>
       <c r="N52" s="52"/>
-      <c r="O52" s="65"/>
+      <c r="O52" s="69"/>
       <c r="P52" s="32" t="s">
         <v>97</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="F53" s="50"/>
       <c r="H53" s="51"/>
       <c r="N53" s="52"/>
-      <c r="O53" s="65"/>
+      <c r="O53" s="69"/>
       <c r="P53" s="58" t="s">
         <v>98</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="F54" s="50"/>
       <c r="H54" s="51"/>
       <c r="N54" s="52"/>
-      <c r="O54" s="65"/>
+      <c r="O54" s="69"/>
       <c r="P54" s="32" t="s">
         <v>99</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="F55" s="50"/>
       <c r="H55" s="51"/>
       <c r="N55" s="52"/>
-      <c r="O55" s="65"/>
+      <c r="O55" s="69"/>
       <c r="P55" s="32" t="s">
         <v>100</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="F56" s="50"/>
       <c r="H56" s="51"/>
       <c r="N56" s="52"/>
-      <c r="O56" s="65"/>
+      <c r="O56" s="69"/>
       <c r="P56" s="32" t="s">
         <v>101</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="F57" s="50"/>
       <c r="H57" s="51"/>
       <c r="N57" s="52"/>
-      <c r="O57" s="65"/>
+      <c r="O57" s="69"/>
       <c r="P57" s="32" t="s">
         <v>102</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="F58" s="50"/>
       <c r="H58" s="51"/>
       <c r="N58" s="52"/>
-      <c r="O58" s="65"/>
+      <c r="O58" s="69"/>
       <c r="P58" s="32" t="s">
         <v>103</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="F59" s="50"/>
       <c r="H59" s="51"/>
       <c r="N59" s="52"/>
-      <c r="O59" s="65"/>
+      <c r="O59" s="69"/>
       <c r="P59" s="32" t="s">
         <v>104</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="F60" s="50"/>
       <c r="H60" s="51"/>
       <c r="N60" s="52"/>
-      <c r="O60" s="65"/>
+      <c r="O60" s="69"/>
       <c r="P60" s="32" t="s">
         <v>105</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="F61" s="50"/>
       <c r="H61" s="51"/>
       <c r="N61" s="52"/>
-      <c r="O61" s="65"/>
+      <c r="O61" s="69"/>
       <c r="P61" s="32" t="s">
         <v>106</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="F62" s="50"/>
       <c r="H62" s="51"/>
       <c r="N62" s="52"/>
-      <c r="O62" s="65"/>
+      <c r="O62" s="69"/>
       <c r="P62" s="32" t="s">
         <v>107</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="F63" s="50"/>
       <c r="H63" s="51"/>
       <c r="N63" s="52"/>
-      <c r="O63" s="65"/>
+      <c r="O63" s="69"/>
       <c r="P63" s="32" t="s">
         <v>108</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="F64" s="50"/>
       <c r="H64" s="51"/>
       <c r="N64" s="52"/>
-      <c r="O64" s="65"/>
+      <c r="O64" s="69"/>
       <c r="P64" s="32" t="s">
         <v>109</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="F65" s="50"/>
       <c r="H65" s="51"/>
       <c r="N65" s="52"/>
-      <c r="O65" s="65"/>
+      <c r="O65" s="69"/>
       <c r="P65" s="32" t="s">
         <v>110</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="F66" s="50"/>
       <c r="H66" s="51"/>
       <c r="N66" s="52"/>
-      <c r="O66" s="65"/>
+      <c r="O66" s="69"/>
       <c r="P66" s="54" t="s">
         <v>111</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="F67" s="50"/>
       <c r="H67" s="51"/>
       <c r="N67" s="52"/>
-      <c r="O67" s="65"/>
+      <c r="O67" s="69"/>
       <c r="P67" s="32" t="s">
         <v>112</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="F68" s="50"/>
       <c r="H68" s="51"/>
       <c r="N68" s="52"/>
-      <c r="O68" s="65"/>
+      <c r="O68" s="69"/>
       <c r="P68" s="32" t="s">
         <v>113</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="F69" s="50"/>
       <c r="H69" s="51"/>
       <c r="N69" s="52"/>
-      <c r="O69" s="65"/>
+      <c r="O69" s="69"/>
       <c r="P69" s="32" t="s">
         <v>114</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="L70" s="49"/>
       <c r="M70" s="49"/>
       <c r="N70" s="52"/>
-      <c r="O70" s="66"/>
+      <c r="O70" s="70"/>
       <c r="P70" s="58" t="s">
         <v>115</v>
       </c>
@@ -5920,19 +5920,19 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="52"/>
-      <c r="O72" s="64" t="s">
+      <c r="O72" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="P72" s="73" t="s">
+      <c r="P72" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="Q72" s="73" t="s">
+      <c r="Q72" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="R72" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="74" t="s">
+      <c r="R72" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72" s="62" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5940,17 +5940,17 @@
       <c r="F73" s="50"/>
       <c r="H73" s="51"/>
       <c r="N73" s="52"/>
-      <c r="O73" s="65"/>
-      <c r="P73" s="73" t="s">
+      <c r="O73" s="69"/>
+      <c r="P73" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="Q73" s="73" t="s">
+      <c r="Q73" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R73" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="74" t="s">
+      <c r="R73" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="62" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       <c r="F74" s="50"/>
       <c r="H74" s="51"/>
       <c r="N74" s="52"/>
-      <c r="O74" s="65"/>
+      <c r="O74" s="69"/>
       <c r="P74" s="54" t="s">
         <v>129</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="F75" s="50"/>
       <c r="H75" s="51"/>
       <c r="N75" s="52"/>
-      <c r="O75" s="65"/>
+      <c r="O75" s="69"/>
       <c r="P75" s="54" t="s">
         <v>130</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="F76" s="50"/>
       <c r="H76" s="51"/>
       <c r="N76" s="52"/>
-      <c r="O76" s="65"/>
+      <c r="O76" s="69"/>
       <c r="P76" s="54" t="s">
         <v>131</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="F77" s="50"/>
       <c r="H77" s="51"/>
       <c r="N77" s="52"/>
-      <c r="O77" s="65"/>
+      <c r="O77" s="69"/>
       <c r="P77" s="54" t="s">
         <v>132</v>
       </c>
@@ -6030,17 +6030,17 @@
       <c r="F78" s="50"/>
       <c r="H78" s="51"/>
       <c r="N78" s="52"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="73" t="s">
+      <c r="O78" s="70"/>
+      <c r="P78" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="Q78" s="73" t="s">
+      <c r="Q78" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="R78" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="76" t="s">
+      <c r="R78" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78" s="64" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       <c r="L79" s="49"/>
       <c r="M79" s="49"/>
       <c r="N79" s="52"/>
-      <c r="O79" s="64" t="s">
+      <c r="O79" s="68" t="s">
         <v>134</v>
       </c>
       <c r="P79" s="54" t="s">
@@ -6074,7 +6074,7 @@
       <c r="F80" s="50"/>
       <c r="H80" s="51"/>
       <c r="N80" s="52"/>
-      <c r="O80" s="65"/>
+      <c r="O80" s="69"/>
       <c r="P80" s="54" t="s">
         <v>136</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="R80" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="S80" s="75" t="s">
+      <c r="S80" s="63" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
       <c r="F81" s="50"/>
       <c r="H81" s="51"/>
       <c r="N81" s="52"/>
-      <c r="O81" s="65"/>
+      <c r="O81" s="69"/>
       <c r="P81" s="54" t="s">
         <v>137</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="F82" s="50"/>
       <c r="H82" s="51"/>
       <c r="N82" s="52"/>
-      <c r="O82" s="65"/>
+      <c r="O82" s="69"/>
       <c r="P82" s="54" t="s">
         <v>138</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="F83" s="50"/>
       <c r="H83" s="51"/>
       <c r="N83" s="52"/>
-      <c r="O83" s="66"/>
+      <c r="O83" s="70"/>
       <c r="P83" s="54" t="s">
         <v>139</v>
       </c>
@@ -6152,19 +6152,19 @@
       <c r="L84" s="49"/>
       <c r="M84" s="49"/>
       <c r="N84" s="52"/>
-      <c r="O84" s="64" t="s">
+      <c r="O84" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="P84" s="73" t="s">
+      <c r="P84" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="Q84" s="73" t="s">
+      <c r="Q84" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="R84" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84" s="76" t="s">
+      <c r="R84" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84" s="64" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6172,17 +6172,17 @@
       <c r="F85" s="50"/>
       <c r="H85" s="51"/>
       <c r="N85" s="52"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="73" t="s">
+      <c r="O85" s="69"/>
+      <c r="P85" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="Q85" s="73" t="s">
+      <c r="Q85" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R85" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S85" s="75" t="s">
+      <c r="R85" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S85" s="63" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
       <c r="F86" s="50"/>
       <c r="H86" s="51"/>
       <c r="N86" s="52"/>
-      <c r="O86" s="65"/>
+      <c r="O86" s="69"/>
       <c r="P86" s="54" t="s">
         <v>143</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="F87" s="50"/>
       <c r="H87" s="51"/>
       <c r="N87" s="52"/>
-      <c r="O87" s="65"/>
+      <c r="O87" s="69"/>
       <c r="P87" s="54" t="s">
         <v>144</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="F88" s="50"/>
       <c r="H88" s="51"/>
       <c r="N88" s="52"/>
-      <c r="O88" s="65"/>
+      <c r="O88" s="69"/>
       <c r="P88" s="54" t="s">
         <v>145</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="F89" s="50"/>
       <c r="H89" s="51"/>
       <c r="N89" s="52"/>
-      <c r="O89" s="65"/>
+      <c r="O89" s="69"/>
       <c r="P89" s="54" t="s">
         <v>146</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="F90" s="50"/>
       <c r="H90" s="51"/>
       <c r="N90" s="52"/>
-      <c r="O90" s="65"/>
+      <c r="O90" s="69"/>
       <c r="P90" s="54" t="s">
         <v>147</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="F91" s="50"/>
       <c r="H91" s="51"/>
       <c r="N91" s="52"/>
-      <c r="O91" s="65"/>
+      <c r="O91" s="69"/>
       <c r="P91" s="54" t="s">
         <v>148</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="F92" s="50"/>
       <c r="H92" s="51"/>
       <c r="N92" s="52"/>
-      <c r="O92" s="65"/>
+      <c r="O92" s="69"/>
       <c r="P92" s="54" t="s">
         <v>149</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="F93" s="50"/>
       <c r="H93" s="51"/>
       <c r="N93" s="52"/>
-      <c r="O93" s="65"/>
+      <c r="O93" s="69"/>
       <c r="P93" s="54" t="s">
         <v>150</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="F94" s="50"/>
       <c r="H94" s="51"/>
       <c r="N94" s="52"/>
-      <c r="O94" s="65"/>
+      <c r="O94" s="69"/>
       <c r="P94" s="54" t="s">
         <v>151</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="F95" s="50"/>
       <c r="H95" s="51"/>
       <c r="N95" s="52"/>
-      <c r="O95" s="65"/>
+      <c r="O95" s="69"/>
       <c r="P95" s="54" t="s">
         <v>152</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="F96" s="50"/>
       <c r="H96" s="51"/>
       <c r="N96" s="52"/>
-      <c r="O96" s="65"/>
+      <c r="O96" s="69"/>
       <c r="P96" s="54" t="s">
         <v>153</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="F97" s="50"/>
       <c r="H97" s="51"/>
       <c r="N97" s="52"/>
-      <c r="O97" s="66"/>
+      <c r="O97" s="70"/>
       <c r="P97" s="54" t="s">
         <v>154</v>
       </c>
@@ -6412,19 +6412,19 @@
       <c r="L98" s="49"/>
       <c r="M98" s="49"/>
       <c r="N98" s="52"/>
-      <c r="O98" s="64" t="s">
+      <c r="O98" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="P98" s="73" t="s">
+      <c r="P98" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="Q98" s="73" t="s">
+      <c r="Q98" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="R98" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S98" s="76" t="s">
+      <c r="R98" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S98" s="64" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6432,17 +6432,17 @@
       <c r="F99" s="50"/>
       <c r="H99" s="51"/>
       <c r="N99" s="52"/>
-      <c r="O99" s="65"/>
-      <c r="P99" s="73" t="s">
+      <c r="O99" s="69"/>
+      <c r="P99" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="Q99" s="73" t="s">
+      <c r="Q99" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R99" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S99" s="76" t="s">
+      <c r="R99" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S99" s="64" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="F100" s="50"/>
       <c r="H100" s="51"/>
       <c r="N100" s="52"/>
-      <c r="O100" s="65"/>
+      <c r="O100" s="69"/>
       <c r="P100" s="54" t="s">
         <v>158</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="R100" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="S100" s="75" t="s">
+      <c r="S100" s="63" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       <c r="F101" s="50"/>
       <c r="H101" s="51"/>
       <c r="N101" s="52"/>
-      <c r="O101" s="65"/>
+      <c r="O101" s="69"/>
       <c r="P101" s="54" t="s">
         <v>159</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="F102" s="50"/>
       <c r="H102" s="51"/>
       <c r="N102" s="52"/>
-      <c r="O102" s="65"/>
+      <c r="O102" s="69"/>
       <c r="P102" s="54" t="s">
         <v>160</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="F103" s="50"/>
       <c r="H103" s="51"/>
       <c r="N103" s="52"/>
-      <c r="O103" s="65"/>
+      <c r="O103" s="69"/>
       <c r="P103" s="54" t="s">
         <v>161</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="F104" s="50"/>
       <c r="H104" s="51"/>
       <c r="N104" s="52"/>
-      <c r="O104" s="66"/>
+      <c r="O104" s="70"/>
       <c r="P104" s="54" t="s">
         <v>162</v>
       </c>
@@ -6546,19 +6546,19 @@
       <c r="L105" s="49"/>
       <c r="M105" s="49"/>
       <c r="N105" s="52"/>
-      <c r="O105" s="64" t="s">
+      <c r="O105" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="P105" s="73" t="s">
+      <c r="P105" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="Q105" s="73" t="s">
+      <c r="Q105" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="R105" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S105" s="76" t="s">
+      <c r="R105" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S105" s="64" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6566,17 +6566,17 @@
       <c r="F106" s="50"/>
       <c r="H106" s="51"/>
       <c r="N106" s="52"/>
-      <c r="O106" s="65"/>
-      <c r="P106" s="73" t="s">
+      <c r="O106" s="69"/>
+      <c r="P106" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="Q106" s="73" t="s">
+      <c r="Q106" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R106" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S106" s="76" t="s">
+      <c r="R106" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S106" s="64" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
       <c r="F107" s="50"/>
       <c r="H107" s="51"/>
       <c r="N107" s="52"/>
-      <c r="O107" s="65"/>
+      <c r="O107" s="69"/>
       <c r="P107" s="54" t="s">
         <v>166</v>
       </c>
@@ -6602,17 +6602,17 @@
       <c r="F108" s="50"/>
       <c r="H108" s="51"/>
       <c r="N108" s="52"/>
-      <c r="O108" s="65"/>
-      <c r="P108" s="73" t="s">
+      <c r="O108" s="69"/>
+      <c r="P108" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="Q108" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="R108" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S108" s="75" t="s">
+      <c r="Q108" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R108" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S108" s="63" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6620,7 +6620,7 @@
       <c r="F109" s="50"/>
       <c r="H109" s="51"/>
       <c r="N109" s="52"/>
-      <c r="O109" s="65"/>
+      <c r="O109" s="69"/>
       <c r="P109" s="54" t="s">
         <v>168</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="F110" s="50"/>
       <c r="H110" s="51"/>
       <c r="N110" s="52"/>
-      <c r="O110" s="65"/>
+      <c r="O110" s="69"/>
       <c r="P110" s="54" t="s">
         <v>169</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="F111" s="50"/>
       <c r="H111" s="51"/>
       <c r="N111" s="52"/>
-      <c r="O111" s="65"/>
+      <c r="O111" s="69"/>
       <c r="P111" s="54" t="s">
         <v>170</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="F112" s="50"/>
       <c r="H112" s="51"/>
       <c r="N112" s="52"/>
-      <c r="O112" s="65"/>
+      <c r="O112" s="69"/>
       <c r="P112" s="54" t="s">
         <v>171</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="F113" s="50"/>
       <c r="H113" s="51"/>
       <c r="N113" s="52"/>
-      <c r="O113" s="65"/>
+      <c r="O113" s="69"/>
       <c r="P113" s="54" t="s">
         <v>172</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="F114" s="50"/>
       <c r="H114" s="51"/>
       <c r="N114" s="52"/>
-      <c r="O114" s="65"/>
+      <c r="O114" s="69"/>
       <c r="P114" s="54" t="s">
         <v>173</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="F115" s="50"/>
       <c r="H115" s="51"/>
       <c r="N115" s="52"/>
-      <c r="O115" s="65"/>
+      <c r="O115" s="69"/>
       <c r="P115" s="54" t="s">
         <v>174</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="F116" s="50"/>
       <c r="H116" s="51"/>
       <c r="N116" s="52"/>
-      <c r="O116" s="65"/>
+      <c r="O116" s="69"/>
       <c r="P116" s="54" t="s">
         <v>175</v>
       </c>
@@ -6764,7 +6764,7 @@
       <c r="F117" s="50"/>
       <c r="H117" s="51"/>
       <c r="N117" s="52"/>
-      <c r="O117" s="66"/>
+      <c r="O117" s="70"/>
       <c r="P117" s="54" t="s">
         <v>176</v>
       </c>
@@ -6788,19 +6788,19 @@
       <c r="L118" s="49"/>
       <c r="M118" s="49"/>
       <c r="N118" s="52"/>
-      <c r="O118" s="64" t="s">
+      <c r="O118" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="P118" s="73" t="s">
+      <c r="P118" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="Q118" s="73" t="s">
+      <c r="Q118" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R118" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S118" s="74" t="s">
+      <c r="R118" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S118" s="62" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6808,17 +6808,17 @@
       <c r="F119" s="50"/>
       <c r="H119" s="51"/>
       <c r="N119" s="52"/>
-      <c r="O119" s="65"/>
-      <c r="P119" s="73" t="s">
+      <c r="O119" s="69"/>
+      <c r="P119" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="Q119" s="73" t="s">
+      <c r="Q119" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="R119" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="S119" s="74" t="s">
+      <c r="R119" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="S119" s="62" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
       <c r="L120" s="49"/>
       <c r="M120" s="49"/>
       <c r="N120" s="52"/>
-      <c r="O120" s="66"/>
+      <c r="O120" s="70"/>
       <c r="P120" s="54" t="s">
         <v>180</v>
       </c>
@@ -6898,20 +6898,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="44" t="s">
         <v>40</v>
       </c>
@@ -7020,27 +7020,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="44" t="s">
         <v>40</v>
       </c>
@@ -7076,7 +7076,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="74" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -7099,7 +7099,7 @@
       <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="46" t="s">
         <v>26</v>
       </c>
@@ -7120,7 +7120,7 @@
       <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="46" t="s">
         <v>27</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="46" t="s">
         <v>30</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="46" t="s">
         <v>32</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="46" t="s">
         <v>33</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="46" t="s">
         <v>34</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="46" t="s">
         <v>35</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="46" t="s">
         <v>36</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="46" t="s">
         <v>37</v>
       </c>
@@ -7321,9 +7321,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7532,27 +7535,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7577,9 +7568,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD46AAD-E98A-4FA8-BFA3-1BCF67823CB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96EC4C15-7EED-4784-8F5D-530E01EF32B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0b74ea9-89d9-43cb-a163-e9320d483776"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="800f79bc-e7dd-46fb-9ad5-c233bb1abdf9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>